--- a/data/app2/raw_sextant_info.xlsx
+++ b/data/app2/raw_sextant_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\PycharmProjects\PathOfExile-SkillGemMargins\data\app2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCF6944-9664-4E2F-927F-396C24652C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ACEB55-1B46-45C8-BEFB-D449DC4492AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="347">
   <si>
     <t>Item</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+)</t>
   </si>
   <si>
-    <t>Line4</t>
-  </si>
-  <si>
-    <t>3 uses remaining</t>
-  </si>
-  <si>
     <t>Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+)</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Your Maps contain 6 additional packs of Monsters that deal Cold Damage</t>
   </si>
   <si>
-    <t>4 uses remaining</t>
-  </si>
-  <si>
     <t>Players and Monsters take 12% increased Lightning Damage</t>
   </si>
   <si>
@@ -255,15 +246,6 @@
     <t>Breaches in your Maps belong to Chayula</t>
   </si>
   <si>
-    <t>5 uses remaining</t>
-  </si>
-  <si>
-    <t>6 uses remaining</t>
-  </si>
-  <si>
-    <t>7 uses remaining</t>
-  </si>
-  <si>
     <t>Your Maps contain an additional Abyss</t>
   </si>
   <si>
@@ -756,219 +738,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Map Bosses drop 1 additional Unique Item \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+) \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+) \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Conqueror Map \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Items found in your Identified Maps are Identified \n 20% increased Pack Size in your Unidentified Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and Monsters take 12% increased Fire Damage \n Your Maps contain 6 additional packs of Monsters that deal Fire Damage \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and Monsters take 12% increased Cold Damage \n Your Maps contain 6 additional packs of Monsters that deal Cold Damage \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and Monsters take 12% increased Lightning Damage \n Your Maps contain 6 additional packs of Monsters that deal Lightning Damage \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and Monsters take 12% increased Physical Damage \n Your Maps contain 6 additional packs of Monsters that deal Physical Damage \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and Monsters take 12% increased Chaos Damage \n Your Maps contain 6 additional packs of Monsters that deal Chaos Damage \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Unique Monsters drop Corrupted Items \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses deal 20% increased Damage \n Your Maps have 20% Quality \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses have 20% increased Life \n Quality bonus of your Maps also applies to Rarity of Items found \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps are Alluring \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain Einhar \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain Alva \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain Niko \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain Jun \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 2 additional Strongboxes \n Strongboxes in your Maps are Corrupted \n Strongboxes in your Maps are at least Rare \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items \n Items found in your Maps have 5% chance to be Corrupted \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>25% increased Magic Pack Size \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Rogue Exiles deal 20% increased Damage \n Rogue Exiles drop 2 additional Jewels \n Rogue Exiles in your Maps have 20% increased Life \n Your Maps are inhabited by 2 additional Rogue Exiles \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Magic Maps contain 4 additional packs of Magic Monsters \n Your Normal Maps contain 4 additional packs of Normal Monsters \n Your Rare Maps contain 4 additional Rare Monster packs \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players and their Minions cannot take Reflected Damage \n Your Maps contain 4 additional Packs with Mirrored Rare Monsters \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Strongbox Monsters are Enraged \n Strongbox Monsters have 500% increased Item Quantity \n Your Maps contain an additional Strongbox \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain hunted traitors \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 6 additional packs of Monsters that Convert when Killed \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Player's Life and Mana Recovery from Flasks are instant \n Your Maps contain 6 additional packs of Monsters that Heal \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses are accompanied by Bodyguards \n An additional Map drops on Completing your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps can contain Breaches \n Your Maps contain an additional Breach \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Breaches in your Maps belong to Xoph \n Breaches in your Maps contain 3 additional Clasped Hands \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Breaches in your Maps belong to Tul \n Breaches in your Maps contain 3 additional Clasped Hands \n 4 uses remaining</t>
-  </si>
-  <si>
-    <t>Breaches in your Maps belong to Esh \n Breaches in your Maps contain 3 additional Clasped Hands \n 5 uses remaining</t>
-  </si>
-  <si>
-    <t>Breaches in your Maps belong to Uul-Netol \n Breaches in your Maps contain 3 additional Clasped Hands \n 6 uses remaining</t>
-  </si>
-  <si>
-    <t>Breaches in your Maps belong to Chayula \n Breaches in your Maps contain 3 additional Clasped Hands \n 7 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain an additional Abyss \n Your Maps can contain Abysses \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain an additional Gloom Shrine \n 50% increased Duration of Shrine Effects on Players in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain an additional Resonating Shrine \n 50% increased Duration of Shrine Effects on Players in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption \n Your Maps contain an additional Essence \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Maps found in your Maps are Corrupted with 8 Modifiers \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Create a copy of Beasts Captured in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 100% increased number of Runic Monster Markers \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Legion Monsters in your Maps have 100% more Life \n Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Catalysts dropped by Metamorphs in your Maps are Duplicated \n Metamorphs in your Maps have 100% more Life \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Oils found in your Maps are 1 tier higher \n Cost of Building and Upgrading Blight Towers in your Maps is doubled \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Delirium Reward Bars fill 100% faster in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Blue Plants \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Purple Plants \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Yellow Plants \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Map Bosses are accompanied by a mysterious Harbinger \n Map Bosses drop additional Currency Shards \n Harbingers in your Maps drop additional Currency Shards \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players gain an additional Vaal Soul on Kill \n Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n Items dropped by Corrupted Vaal Monsters in your Maps have 25% chance to be Corrupted \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Slaying Enemies close together can attract monsters from Beyond this realm \n 25% increased Beyond Demon Pack Size in your Maps \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>The First 3 Possessed Monsters drop an additional Rusted Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>The First 3 Possessed Monsters drop an additional Polished Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>The First 3 Possessed Monsters drop an additional Gilded Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>The First 3 Possessed Monsters drop an additional Map \n Your Maps contain an additional Tormented Heretic \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>The First 3 Possessed Monsters drop an additional Unique Item \n Your Maps contain an additional Tormented Graverobber \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used \n Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Players' Vaal Skills do not apply Soul Gain Prevention \n Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain an additional Legion Encounter \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Area contains Metamorph Monsters \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain a Blight Encounter \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain a Mirror of Delirium \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain The Sacred Grove \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Area contains a Smuggler's Cache \n 3 uses remaining</t>
-  </si>
-  <si>
-    <t>Your Maps contain Ritual Altars \n 3 uses remaining</t>
-  </si>
-  <si>
     <t>&lt;img src="</t>
   </si>
   <si>
@@ -1165,6 +934,147 @@
   </si>
   <si>
     <t>https://web.poecdn.com/gen/image/WzI1LDE0LHsiZiI6IjJESXRlbXMvTWFwcy9VYmVyVmFhbDAxIiwidyI6MSwiaCI6MSwic2NhbGUiOjF9XQ/0e9822853c/UberVaal01.png</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Conqueror Map</t>
+  </si>
+  <si>
+    <t>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+)</t>
+  </si>
+  <si>
+    <t>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+)</t>
+  </si>
+  <si>
+    <t>Breaches in your Maps belong to Chayula &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</t>
+  </si>
+  <si>
+    <t>Breaches in your Maps belong to Esh &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</t>
+  </si>
+  <si>
+    <t>Breaches in your Maps belong to Tul &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</t>
+  </si>
+  <si>
+    <t>Breaches in your Maps belong to Uul-Netol &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</t>
+  </si>
+  <si>
+    <t>Breaches in your Maps belong to Xoph &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</t>
+  </si>
+  <si>
+    <t>Map Bosses are accompanied by a mysterious Harbinger &lt;br&gt; Map Bosses drop additional Currency Shards &lt;br&gt; Harbingers in your Maps drop additional Currency Shards</t>
+  </si>
+  <si>
+    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Blue Plants</t>
+  </si>
+  <si>
+    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Purple Plants</t>
+  </si>
+  <si>
+    <t>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Yellow Plants</t>
+  </si>
+  <si>
+    <t>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Items dropped by Corrupted Vaal Monsters in your Maps have 25% chance to be Corrupted</t>
+  </si>
+  <si>
+    <t>Legion Monsters in your Maps have 100% more Life &lt;br&gt; Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated</t>
+  </si>
+  <si>
+    <t>Player's Life and Mana Recovery from Flasks are instant &lt;br&gt; Your Maps contain 6 additional packs of Monsters that Heal</t>
+  </si>
+  <si>
+    <t>Map Bosses deal 20% increased Damage &lt;br&gt; Your Maps have 20% Quality</t>
+  </si>
+  <si>
+    <t>Catalysts dropped by Metamorphs in your Maps are Duplicated &lt;br&gt; Metamorphs in your Maps have 100% more Life</t>
+  </si>
+  <si>
+    <t>Players and their Minions cannot take Reflected Damage &lt;br&gt; Your Maps contain 4 additional Packs with Mirrored Rare Monsters</t>
+  </si>
+  <si>
+    <t>The First 3 Possessed Monsters drop an additional Gilded Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</t>
+  </si>
+  <si>
+    <t>The First 3 Possessed Monsters drop an additional Polished Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</t>
+  </si>
+  <si>
+    <t>The First 3 Possessed Monsters drop an additional Rusted Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</t>
+  </si>
+  <si>
+    <t>Map Bosses have 20% increased Life &lt;br&gt; Quality bonus of your Maps also applies to Rarity of Items found</t>
+  </si>
+  <si>
+    <t>Your Magic Maps contain 4 additional packs of Magic Monsters &lt;br&gt; Your Normal Maps contain 4 additional packs of Normal Monsters &lt;br&gt; Your Rare Maps contain 4 additional Rare Monster packs</t>
+  </si>
+  <si>
+    <t>Strongbox Monsters are Enraged &lt;br&gt; Strongbox Monsters have 500% increased Item Quantity &lt;br&gt; Your Maps contain an additional Strongbox</t>
+  </si>
+  <si>
+    <t>Players' Vaal Skills do not apply Soul Gain Prevention &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</t>
+  </si>
+  <si>
+    <t>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used</t>
+  </si>
+  <si>
+    <t>Players gain an additional Vaal Soul on Kill &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</t>
+  </si>
+  <si>
+    <t>Your Maps contain 2 additional Strongboxes &lt;br&gt; Strongboxes in your Maps are Corrupted &lt;br&gt; Strongboxes in your Maps are at least Rare</t>
+  </si>
+  <si>
+    <t>Items found in your Identified Maps are Identified &lt;br&gt; 20% increased Pack Size in your Unidentified Maps</t>
+  </si>
+  <si>
+    <t>Players and Monsters take 12% increased Chaos Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Chaos Damage</t>
+  </si>
+  <si>
+    <t>Players and Monsters take 12% increased Cold Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Cold Damage</t>
+  </si>
+  <si>
+    <t>Players and Monsters take 12% increased Fire Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Fire Damage</t>
+  </si>
+  <si>
+    <t>Players and Monsters take 12% increased Lightning Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Lightning Damage</t>
+  </si>
+  <si>
+    <t>Players and Monsters take 12% increased Physical Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Physical Damage</t>
+  </si>
+  <si>
+    <t>Your Maps contain an additional Abyss &lt;br&gt; Your Maps can contain Abysses</t>
+  </si>
+  <si>
+    <t>Your Maps can contain Breaches &lt;br&gt; Your Maps contain an additional Breach</t>
+  </si>
+  <si>
+    <t>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption &lt;br&gt; Your Maps contain an additional Essence</t>
+  </si>
+  <si>
+    <t>Your Maps contain an additional Gloom Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</t>
+  </si>
+  <si>
+    <t>Your Maps contain an additional Resonating Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</t>
+  </si>
+  <si>
+    <t>The First 3 Possessed Monsters drop an additional Unique Item &lt;br&gt; Your Maps contain an additional Tormented Graverobber</t>
+  </si>
+  <si>
+    <t>The First 3 Possessed Monsters drop an additional Map &lt;br&gt; Your Maps contain an additional Tormented Heretic</t>
+  </si>
+  <si>
+    <t>Rogue Exiles deal 20% increased Damage &lt;br&gt; Rogue Exiles drop 2 additional Jewels &lt;br&gt; Rogue Exiles in your Maps have 20% increased Life &lt;br&gt; Your Maps are inhabited by 2 additional Rogue Exiles</t>
+  </si>
+  <si>
+    <t>Slaying Enemies close together can attract monsters from Beyond this realm &lt;br&gt; 25% increased Beyond Demon Pack Size in your Maps</t>
+  </si>
+  <si>
+    <t>Oils found in your Maps are 1 tier higher &lt;br&gt; Cost of Building and Upgrading Blight Towers in your Maps is doubled</t>
+  </si>
+  <si>
+    <t>Map Bosses are accompanied by Bodyguards &lt;br&gt; An additional Map drops on Completing your Maps</t>
+  </si>
+  <si>
+    <t>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1232,7 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1349,7 +1260,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1436,7 +1346,7 @@
     <tableColumn id="6" xr3:uid="{5EBE3E63-779F-4074-922F-70F18FF8777C}" name="Line1"/>
     <tableColumn id="7" xr3:uid="{F3F79C9E-FF40-4153-90F2-1EA0621E8500}" name="Line2"/>
     <tableColumn id="8" xr3:uid="{983FA5D1-A1C0-463B-9FC9-0476EFFB62B8}" name="Line3"/>
-    <tableColumn id="9" xr3:uid="{E8EC1F72-523A-4BEC-9D5A-B498516C41B4}" name="Line4"/>
+    <tableColumn id="9" xr3:uid="{E8EC1F72-523A-4BEC-9D5A-B498516C41B4}" name="Spalte1"/>
     <tableColumn id="10" xr3:uid="{A0B9ACAA-41A7-4925-AE97-021D25D99652}" name="full_text"/>
     <tableColumn id="11" xr3:uid="{B8AE8859-C17A-4AFE-B62B-8DC72DB09BAB}" name="w_default"/>
     <tableColumn id="12" xr3:uid="{06110CE3-B374-4294-93CD-2A07A0ED122C}" name="w_has_atlas_mission"/>
@@ -1475,19 +1385,19 @@
     <tableColumn id="6" xr3:uid="{176E29EA-B882-4477-9060-7F55413EEB86}" name="Line1" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{15C88C65-3A63-4D1E-94DE-1ECA93266514}" name="Line2" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{7725FD09-F6DA-49DA-8F30-FD3F4C5485DE}" name="Line3" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3E3809F2-6934-4BD3-B2F6-368198FB9230}" name="Line4"/>
-    <tableColumn id="10" xr3:uid="{D6846561-B0C4-4EA6-A635-83B6A73E0A87}" name="full_text" dataDxfId="9">
-      <calculatedColumnFormula>CONCATENATE(F2, IF(ISTEXT(G2), " \n ", ""), G2, IF(ISTEXT(H2), " \n ", ""), H2, IF(ISTEXT(I2), " \n ", ""), I2, IF(ISTEXT(J2), " \n ", ""), J2)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{3E3809F2-6934-4BD3-B2F6-368198FB9230}" name="Spalte1"/>
+    <tableColumn id="10" xr3:uid="{D6846561-B0C4-4EA6-A635-83B6A73E0A87}" name="full_text" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(F2, IF(ISTEXT(G2), " &lt;br&gt; ", ""), G2, IF(ISTEXT(H2), " &lt;br&gt; ", ""), H2, IF(ISTEXT(I2), " &lt;br&gt; ", ""), I2, IF(ISTEXT(J2), " &lt;br&gt; ", ""), J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC3B91E6-26FC-40C6-923F-E00C2C0D28D8}" name="w_default" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{53703125-E178-4CF5-8E76-754196F4748E}" name="w_has_atlas_mission" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{299B55AA-52D6-4287-834A-8033A945FB9F}" name="w_hall_of_grandmasters" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{04E0CC50-9D0D-4F5F-9F27-EAE54F543FF0}" name="w_no_strongboxes" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{F19F533B-C7D3-4F46-9399-DF89F7D0F951}" name="w_unique_map" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{11687D08-167E-4B44-919C-A8AC11872EF4}" name="w_no_monster_packs" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{472998AE-39EE-4400-8375-52EBE7AE80C1}" name="w_no_boss" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{435F9930-4E7E-4C5C-B54E-4D95AF5CD500}" name="w_map_has_blight" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{8733EDAF-DDF4-44F3-B245-7904C2E56841}" name="w_vault_of_atziri" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{AC3B91E6-26FC-40C6-923F-E00C2C0D28D8}" name="w_default" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{53703125-E178-4CF5-8E76-754196F4748E}" name="w_has_atlas_mission" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{299B55AA-52D6-4287-834A-8033A945FB9F}" name="w_hall_of_grandmasters" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{04E0CC50-9D0D-4F5F-9F27-EAE54F543FF0}" name="w_no_strongboxes" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{F19F533B-C7D3-4F46-9399-DF89F7D0F951}" name="w_unique_map" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{11687D08-167E-4B44-919C-A8AC11872EF4}" name="w_no_monster_packs" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{472998AE-39EE-4400-8375-52EBE7AE80C1}" name="w_no_boss" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{435F9930-4E7E-4C5C-B54E-4D95AF5CD500}" name="w_map_has_blight" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{8733EDAF-DDF4-44F3-B245-7904C2E56841}" name="w_vault_of_atziri" dataDxfId="1"/>
     <tableColumn id="20" xr3:uid="{824A2071-879C-413C-94D2-69BB11FBA7FD}" name="w_elder_occupied"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1819,7 +1729,7 @@
   <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1843,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1852,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1867,40 +1777,40 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="K1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" t="s">
         <v>228</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>229</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>231</v>
-      </c>
-      <c r="P1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" t="s">
-        <v>234</v>
-      </c>
-      <c r="S1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1908,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1917,22 +1827,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -1946,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1955,19 +1862,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="L3">
         <v>250</v>
@@ -1978,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1987,16 +1891,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -2010,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2019,19 +1920,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2045,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2054,19 +1952,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -2080,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2089,19 +1984,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -2115,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2124,19 +2016,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -2150,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2159,19 +2048,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -2185,7 +2071,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2194,16 +2080,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -2214,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2223,19 +2106,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="L11">
         <v>250</v>
@@ -2249,7 +2129,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2258,16 +2138,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="L12">
         <v>125</v>
@@ -2287,7 +2164,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2296,16 +2173,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>306</v>
+        <v>116</v>
       </c>
       <c r="L13">
         <v>250</v>
@@ -2325,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2334,19 +2208,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="L14">
         <v>250</v>
@@ -2360,7 +2231,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2369,16 +2240,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>125</v>
@@ -2398,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2407,19 +2275,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="L16">
         <v>500</v>
@@ -2436,7 +2301,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2445,19 +2310,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -2474,7 +2336,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2483,16 +2345,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -2509,7 +2368,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2518,16 +2377,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="L19">
         <v>250</v>
@@ -2544,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2553,16 +2409,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="L20">
         <v>250</v>
@@ -2576,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2585,16 +2438,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <v>125</v>
@@ -2614,7 +2464,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2623,16 +2473,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="L22">
         <v>250</v>
@@ -2649,7 +2496,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2658,16 +2505,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="L23">
         <v>250</v>
@@ -2684,7 +2528,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2693,16 +2537,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="L24">
         <v>50</v>
@@ -2713,7 +2554,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2722,16 +2563,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="L25">
         <v>250</v>
@@ -2742,7 +2580,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2751,16 +2589,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <v>250</v>
@@ -2771,7 +2606,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2780,16 +2615,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <v>250</v>
@@ -2800,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2809,16 +2641,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="L28">
         <v>250</v>
@@ -2829,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2838,16 +2667,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>125</v>
@@ -2867,7 +2693,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2876,19 +2702,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="L30">
         <v>1000</v>
@@ -2905,7 +2728,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2914,16 +2737,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -2940,7 +2760,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2949,19 +2769,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L32">
         <v>250</v>
@@ -2972,7 +2789,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2981,19 +2798,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="L33">
         <v>250</v>
@@ -3004,7 +2818,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3013,25 +2827,22 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
         <v>46</v>
       </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
       <c r="L34">
         <v>500</v>
@@ -3045,7 +2856,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3054,19 +2865,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="L35">
         <v>250</v>
@@ -3080,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3089,19 +2897,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="L36">
         <v>50</v>
@@ -3118,7 +2923,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -3127,19 +2932,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="L37">
         <v>250</v>
@@ -3153,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3162,19 +2964,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="L38">
         <v>500</v>
@@ -3185,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -3194,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -3203,13 +3002,10 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -3223,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -3232,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -3241,13 +3037,10 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -3261,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3270,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -3281,11 +3074,8 @@
       <c r="H41" t="s">
         <v>12</v>
       </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -3299,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3308,16 +3098,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
       <c r="K42" s="14" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="L42">
         <v>500</v>
@@ -3331,7 +3118,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3340,19 +3127,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L43">
         <v>50</v>
@@ -3366,7 +3150,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -3375,19 +3159,16 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L44">
         <v>50</v>
@@ -3401,7 +3182,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3410,19 +3191,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J45" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L45">
         <v>50</v>
@@ -3436,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3445,19 +3223,16 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="L46">
         <v>50</v>
@@ -3471,7 +3246,7 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3480,19 +3255,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="J47" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -3506,7 +3278,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3515,16 +3287,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -3541,7 +3310,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3550,16 +3319,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3576,7 +3342,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3585,16 +3351,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3611,7 +3374,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3620,22 +3383,19 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="L51">
         <v>250</v>
@@ -3649,7 +3409,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3658,22 +3418,19 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3690,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3699,22 +3456,19 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J53" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3731,7 +3485,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3740,22 +3494,19 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="L54">
         <v>50</v>
@@ -3772,7 +3523,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3781,16 +3532,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
-      </c>
-      <c r="J55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="L55">
         <v>50</v>
@@ -3807,7 +3555,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -3816,19 +3564,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="L56">
         <v>250</v>
@@ -3842,7 +3587,7 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3851,19 +3596,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L57">
         <v>50</v>
@@ -3880,7 +3622,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3889,19 +3631,16 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="L58">
         <v>1000</v>
@@ -3912,7 +3651,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -3921,16 +3660,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="L59">
         <v>50</v>
@@ -3941,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -3950,19 +3686,16 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="L60">
         <v>500</v>
@@ -3973,7 +3706,7 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -3982,19 +3715,16 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L61">
         <v>50</v>
@@ -4011,7 +3741,7 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -4020,16 +3750,13 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="L62">
         <v>100</v>
@@ -4046,7 +3773,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -4055,16 +3782,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="K63" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -4078,7 +3802,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -4087,19 +3811,16 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
-      </c>
-      <c r="J64" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="L64">
         <v>1000</v>
@@ -4110,7 +3831,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -4119,19 +3840,16 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="K65" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="L65">
         <v>60</v>
@@ -4142,7 +3860,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -4151,19 +3869,16 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J66" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="K66" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="L66">
         <v>175</v>
@@ -4174,7 +3889,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -4183,19 +3898,16 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="K67" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L67">
         <v>520</v>
@@ -4206,7 +3918,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -4215,19 +3927,16 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K68" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="L68">
         <v>500</v>
@@ -4238,7 +3947,7 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -4247,22 +3956,19 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K69" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="L69">
         <v>1000</v>
@@ -4279,7 +3985,7 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -4288,16 +3994,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J70" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="L70">
         <v>50</v>
@@ -4314,7 +4017,7 @@
         <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -4323,22 +4026,19 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
-      </c>
-      <c r="J71" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="L71">
         <v>250</v>
@@ -4355,7 +4055,7 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -4364,16 +4064,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J72" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="L72">
         <v>50</v>
@@ -4390,7 +4087,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -4399,16 +4096,13 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="L73">
         <v>250</v>
@@ -4425,7 +4119,7 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -4434,19 +4128,16 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
-      </c>
-      <c r="J74" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K74" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="L74">
         <v>250</v>
@@ -4460,7 +4151,7 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -4469,22 +4160,19 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H75" t="s">
-        <v>118</v>
-      </c>
-      <c r="J75" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="K75" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="L75">
         <v>250</v>
@@ -4498,7 +4186,7 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -4507,19 +4195,16 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
-      </c>
-      <c r="J76" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L76">
         <v>500</v>
@@ -4541,10 +4226,10 @@
   <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -4576,7 +4261,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -4585,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -4600,46 +4285,46 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4647,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -4656,23 +4341,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="0">CONCATENATE(F2, IF(ISTEXT(G2), " \n ", ""), G2, IF(ISTEXT(H2), " \n ", ""), H2, IF(ISTEXT(I2), " \n ", ""), I2, IF(ISTEXT(J2), " \n ", ""), J2)</f>
-        <v>Your Maps contain 2 additional Strongboxes \n Strongboxes in your Maps are Corrupted \n Strongboxes in your Maps are at least Rare \n 3 uses remaining</v>
+        <f>CONCATENATE(F2, IF(ISTEXT(G2), " &lt;br&gt; ", ""), G2, IF(ISTEXT(H2), " &lt;br&gt; ", ""), H2, IF(ISTEXT(I2), " &lt;br&gt; ", ""), I2, IF(ISTEXT(J2), " &lt;br&gt; ", ""), J2)</f>
+        <v>Your Maps contain 2 additional Strongboxes &lt;br&gt; Strongboxes in your Maps are Corrupted &lt;br&gt; Strongboxes in your Maps are at least Rare</v>
       </c>
       <c r="L2" s="2">
         <v>500</v>
@@ -4686,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -4695,20 +4378,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Items found in your Identified Maps are Identified \n 20% increased Pack Size in your Unidentified Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F3, IF(ISTEXT(G3), " &lt;br&gt; ", ""), G3, IF(ISTEXT(H3), " &lt;br&gt; ", ""), H3, IF(ISTEXT(I3), " &lt;br&gt; ", ""), I3, IF(ISTEXT(J3), " &lt;br&gt; ", ""), J3)</f>
+        <v>Items found in your Identified Maps are Identified &lt;br&gt; 20% increased Pack Size in your Unidentified Maps</v>
       </c>
       <c r="L3" s="2">
         <v>250</v>
@@ -4719,7 +4400,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -4728,20 +4409,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>25% increased Magic Pack Size \n 3 uses remaining</v>
+        <f>CONCATENATE(F4, IF(ISTEXT(G4), " &lt;br&gt; ", ""), G4, IF(ISTEXT(H4), " &lt;br&gt; ", ""), H4, IF(ISTEXT(I4), " &lt;br&gt; ", ""), I4, IF(ISTEXT(J4), " &lt;br&gt; ", ""), J4)</f>
+        <v>25% increased Magic Pack Size</v>
       </c>
       <c r="L4" s="8">
         <v>500</v>
@@ -4755,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -4764,20 +4443,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J5"/>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Players and Monsters take 12% increased Chaos Damage \n Your Maps contain 6 additional packs of Monsters that deal Chaos Damage \n 3 uses remaining</v>
+        <f>CONCATENATE(F5, IF(ISTEXT(G5), " &lt;br&gt; ", ""), G5, IF(ISTEXT(H5), " &lt;br&gt; ", ""), H5, IF(ISTEXT(I5), " &lt;br&gt; ", ""), I5, IF(ISTEXT(J5), " &lt;br&gt; ", ""), J5)</f>
+        <v>Players and Monsters take 12% increased Chaos Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Chaos Damage</v>
       </c>
       <c r="L5" s="2">
         <v>1000</v>
@@ -4791,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -4800,20 +4477,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J6"/>
       <c r="K6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Players and Monsters take 12% increased Cold Damage \n Your Maps contain 6 additional packs of Monsters that deal Cold Damage \n 3 uses remaining</v>
+        <f>CONCATENATE(F6, IF(ISTEXT(G6), " &lt;br&gt; ", ""), G6, IF(ISTEXT(H6), " &lt;br&gt; ", ""), H6, IF(ISTEXT(I6), " &lt;br&gt; ", ""), I6, IF(ISTEXT(J6), " &lt;br&gt; ", ""), J6)</f>
+        <v>Players and Monsters take 12% increased Cold Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Cold Damage</v>
       </c>
       <c r="L6" s="2">
         <v>1000</v>
@@ -4827,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -4836,20 +4511,18 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J7"/>
       <c r="K7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Players and Monsters take 12% increased Fire Damage \n Your Maps contain 6 additional packs of Monsters that deal Fire Damage \n 3 uses remaining</v>
+        <f>CONCATENATE(F7, IF(ISTEXT(G7), " &lt;br&gt; ", ""), G7, IF(ISTEXT(H7), " &lt;br&gt; ", ""), H7, IF(ISTEXT(I7), " &lt;br&gt; ", ""), I7, IF(ISTEXT(J7), " &lt;br&gt; ", ""), J7)</f>
+        <v>Players and Monsters take 12% increased Fire Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Fire Damage</v>
       </c>
       <c r="L7" s="2">
         <v>1000</v>
@@ -4863,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -4872,20 +4545,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J8"/>
       <c r="K8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Players and Monsters take 12% increased Lightning Damage \n Your Maps contain 6 additional packs of Monsters that deal Lightning Damage \n 3 uses remaining</v>
+        <f>CONCATENATE(F8, IF(ISTEXT(G8), " &lt;br&gt; ", ""), G8, IF(ISTEXT(H8), " &lt;br&gt; ", ""), H8, IF(ISTEXT(I8), " &lt;br&gt; ", ""), I8, IF(ISTEXT(J8), " &lt;br&gt; ", ""), J8)</f>
+        <v>Players and Monsters take 12% increased Lightning Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Lightning Damage</v>
       </c>
       <c r="L8" s="2">
         <v>1000</v>
@@ -4899,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -4908,20 +4579,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J9"/>
       <c r="K9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Players and Monsters take 12% increased Physical Damage \n Your Maps contain 6 additional packs of Monsters that deal Physical Damage \n 3 uses remaining</v>
+        <f>CONCATENATE(F9, IF(ISTEXT(G9), " &lt;br&gt; ", ""), G9, IF(ISTEXT(H9), " &lt;br&gt; ", ""), H9, IF(ISTEXT(I9), " &lt;br&gt; ", ""), I9, IF(ISTEXT(J9), " &lt;br&gt; ", ""), J9)</f>
+        <v>Players and Monsters take 12% increased Physical Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Physical Damage</v>
       </c>
       <c r="L9" s="2">
         <v>1000</v>
@@ -4935,7 +4604,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -4944,17 +4613,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J10"/>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps are Alluring \n 3 uses remaining</v>
+        <f>CONCATENATE(F10, IF(ISTEXT(G10), " &lt;br&gt; ", ""), G10, IF(ISTEXT(H10), " &lt;br&gt; ", ""), H10, IF(ISTEXT(I10), " &lt;br&gt; ", ""), I10, IF(ISTEXT(J10), " &lt;br&gt; ", ""), J10)</f>
+        <v>Your Maps are Alluring</v>
       </c>
       <c r="L10" s="2">
         <v>10</v>
@@ -4965,7 +4632,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -4974,20 +4641,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J11"/>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain an additional Abyss \n Your Maps can contain Abysses \n 3 uses remaining</v>
+        <f>CONCATENATE(F11, IF(ISTEXT(G11), " &lt;br&gt; ", ""), G11, IF(ISTEXT(H11), " &lt;br&gt; ", ""), H11, IF(ISTEXT(I11), " &lt;br&gt; ", ""), I11, IF(ISTEXT(J11), " &lt;br&gt; ", ""), J11)</f>
+        <v>Your Maps contain an additional Abyss &lt;br&gt; Your Maps can contain Abysses</v>
       </c>
       <c r="L11" s="2">
         <v>250</v>
@@ -5001,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -5010,17 +4675,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J12"/>
       <c r="K12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain Alva \n 3 uses remaining</v>
+        <f>CONCATENATE(F12, IF(ISTEXT(G12), " &lt;br&gt; ", ""), G12, IF(ISTEXT(H12), " &lt;br&gt; ", ""), H12, IF(ISTEXT(I12), " &lt;br&gt; ", ""), I12, IF(ISTEXT(J12), " &lt;br&gt; ", ""), J12)</f>
+        <v>Your Maps contain Alva</v>
       </c>
       <c r="L12" s="2">
         <v>125</v>
@@ -5040,7 +4703,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -5049,17 +4712,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J13"/>
       <c r="K13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain a Blight Encounter \n 3 uses remaining</v>
+        <f>CONCATENATE(F13, IF(ISTEXT(G13), " &lt;br&gt; ", ""), G13, IF(ISTEXT(H13), " &lt;br&gt; ", ""), H13, IF(ISTEXT(I13), " &lt;br&gt; ", ""), I13, IF(ISTEXT(J13), " &lt;br&gt; ", ""), J13)</f>
+        <v>Your Maps contain a Blight Encounter</v>
       </c>
       <c r="L13" s="2">
         <v>250</v>
@@ -5079,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -5088,20 +4749,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J14"/>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps can contain Breaches \n Your Maps contain an additional Breach \n 3 uses remaining</v>
+        <f>CONCATENATE(F14, IF(ISTEXT(G14), " &lt;br&gt; ", ""), G14, IF(ISTEXT(H14), " &lt;br&gt; ", ""), H14, IF(ISTEXT(I14), " &lt;br&gt; ", ""), I14, IF(ISTEXT(J14), " &lt;br&gt; ", ""), J14)</f>
+        <v>Your Maps can contain Breaches &lt;br&gt; Your Maps contain an additional Breach</v>
       </c>
       <c r="L14" s="2">
         <v>250</v>
@@ -5115,7 +4774,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -5124,17 +4783,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J15"/>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain Einhar \n 3 uses remaining</v>
+        <f>CONCATENATE(F15, IF(ISTEXT(G15), " &lt;br&gt; ", ""), G15, IF(ISTEXT(H15), " &lt;br&gt; ", ""), H15, IF(ISTEXT(I15), " &lt;br&gt; ", ""), I15, IF(ISTEXT(J15), " &lt;br&gt; ", ""), J15)</f>
+        <v>Your Maps contain Einhar</v>
       </c>
       <c r="L15" s="2">
         <v>125</v>
@@ -5154,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -5163,20 +4820,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J16"/>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption \n Your Maps contain an additional Essence \n 3 uses remaining</v>
+        <f>CONCATENATE(F16, IF(ISTEXT(G16), " &lt;br&gt; ", ""), G16, IF(ISTEXT(H16), " &lt;br&gt; ", ""), H16, IF(ISTEXT(I16), " &lt;br&gt; ", ""), I16, IF(ISTEXT(J16), " &lt;br&gt; ", ""), J16)</f>
+        <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption &lt;br&gt; Your Maps contain an additional Essence</v>
       </c>
       <c r="L16" s="2">
         <v>500</v>
@@ -5193,7 +4848,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -5202,20 +4857,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J17"/>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain an additional Gloom Shrine \n 50% increased Duration of Shrine Effects on Players in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F17, IF(ISTEXT(G17), " &lt;br&gt; ", ""), G17, IF(ISTEXT(H17), " &lt;br&gt; ", ""), H17, IF(ISTEXT(I17), " &lt;br&gt; ", ""), I17, IF(ISTEXT(J17), " &lt;br&gt; ", ""), J17)</f>
+        <v>Your Maps contain an additional Gloom Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</v>
       </c>
       <c r="L17" s="2">
         <v>1000</v>
@@ -5232,7 +4885,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -5241,17 +4894,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J18"/>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain The Sacred Grove \n 3 uses remaining</v>
+        <f>CONCATENATE(F18, IF(ISTEXT(G18), " &lt;br&gt; ", ""), G18, IF(ISTEXT(H18), " &lt;br&gt; ", ""), H18, IF(ISTEXT(I18), " &lt;br&gt; ", ""), I18, IF(ISTEXT(J18), " &lt;br&gt; ", ""), J18)</f>
+        <v>Your Maps contain The Sacred Grove</v>
       </c>
       <c r="L18" s="2">
         <v>100</v>
@@ -5268,7 +4919,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -5277,17 +4928,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J19"/>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Area contains a Smuggler's Cache \n 3 uses remaining</v>
+        <f>CONCATENATE(F19, IF(ISTEXT(G19), " &lt;br&gt; ", ""), G19, IF(ISTEXT(H19), " &lt;br&gt; ", ""), H19, IF(ISTEXT(I19), " &lt;br&gt; ", ""), I19, IF(ISTEXT(J19), " &lt;br&gt; ", ""), J19)</f>
+        <v>Area contains a Smuggler's Cache</v>
       </c>
       <c r="L19" s="2">
         <v>250</v>
@@ -5304,7 +4953,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -5313,20 +4962,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain hunted traitors \n 3 uses remaining</v>
+        <f>CONCATENATE(F20, IF(ISTEXT(G20), " &lt;br&gt; ", ""), G20, IF(ISTEXT(H20), " &lt;br&gt; ", ""), H20, IF(ISTEXT(I20), " &lt;br&gt; ", ""), I20, IF(ISTEXT(J20), " &lt;br&gt; ", ""), J20)</f>
+        <v>Your Maps contain hunted traitors</v>
       </c>
       <c r="L20" s="8">
         <v>250</v>
@@ -5340,7 +4987,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -5349,17 +4996,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J21"/>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain Jun \n 3 uses remaining</v>
+        <f>CONCATENATE(F21, IF(ISTEXT(G21), " &lt;br&gt; ", ""), G21, IF(ISTEXT(H21), " &lt;br&gt; ", ""), H21, IF(ISTEXT(I21), " &lt;br&gt; ", ""), I21, IF(ISTEXT(J21), " &lt;br&gt; ", ""), J21)</f>
+        <v>Your Maps contain Jun</v>
       </c>
       <c r="L21" s="2">
         <v>125</v>
@@ -5379,7 +5024,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -5388,17 +5033,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J22"/>
       <c r="K22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain an additional Legion Encounter \n 3 uses remaining</v>
+        <f>CONCATENATE(F22, IF(ISTEXT(G22), " &lt;br&gt; ", ""), G22, IF(ISTEXT(H22), " &lt;br&gt; ", ""), H22, IF(ISTEXT(I22), " &lt;br&gt; ", ""), I22, IF(ISTEXT(J22), " &lt;br&gt; ", ""), J22)</f>
+        <v>Your Maps contain an additional Legion Encounter</v>
       </c>
       <c r="L22" s="2">
         <v>250</v>
@@ -5415,7 +5058,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -5424,17 +5067,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J23"/>
       <c r="K23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Area contains Metamorph Monsters \n 3 uses remaining</v>
+        <f>CONCATENATE(F23, IF(ISTEXT(G23), " &lt;br&gt; ", ""), G23, IF(ISTEXT(H23), " &lt;br&gt; ", ""), H23, IF(ISTEXT(I23), " &lt;br&gt; ", ""), I23, IF(ISTEXT(J23), " &lt;br&gt; ", ""), J23)</f>
+        <v>Area contains Metamorph Monsters</v>
       </c>
       <c r="L23" s="2">
         <v>250</v>
@@ -5451,7 +5092,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -5460,20 +5101,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</v>
+        <f>CONCATENATE(F24, IF(ISTEXT(G24), " &lt;br&gt; ", ""), G24, IF(ISTEXT(H24), " &lt;br&gt; ", ""), H24, IF(ISTEXT(I24), " &lt;br&gt; ", ""), I24, IF(ISTEXT(J24), " &lt;br&gt; ", ""), J24)</f>
+        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L24" s="8">
         <v>50</v>
@@ -5484,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -5493,20 +5132,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</v>
+        <f>CONCATENATE(F25, IF(ISTEXT(G25), " &lt;br&gt; ", ""), G25, IF(ISTEXT(H25), " &lt;br&gt; ", ""), H25, IF(ISTEXT(I25), " &lt;br&gt; ", ""), I25, IF(ISTEXT(J25), " &lt;br&gt; ", ""), J25)</f>
+        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L25" s="8">
         <v>250</v>
@@ -5517,7 +5154,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -5526,20 +5163,18 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</v>
+        <f>CONCATENATE(F26, IF(ISTEXT(G26), " &lt;br&gt; ", ""), G26, IF(ISTEXT(H26), " &lt;br&gt; ", ""), H26, IF(ISTEXT(I26), " &lt;br&gt; ", ""), I26, IF(ISTEXT(J26), " &lt;br&gt; ", ""), J26)</f>
+        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L26" s="8">
         <v>250</v>
@@ -5550,7 +5185,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -5559,20 +5194,18 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</v>
+        <f>CONCATENATE(F27, IF(ISTEXT(G27), " &lt;br&gt; ", ""), G27, IF(ISTEXT(H27), " &lt;br&gt; ", ""), H27, IF(ISTEXT(I27), " &lt;br&gt; ", ""), I27, IF(ISTEXT(J27), " &lt;br&gt; ", ""), J27)</f>
+        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L27" s="8">
         <v>250</v>
@@ -5583,7 +5216,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -5592,20 +5225,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels \n 3 uses remaining</v>
+        <f>CONCATENATE(F28, IF(ISTEXT(G28), " &lt;br&gt; ", ""), G28, IF(ISTEXT(H28), " &lt;br&gt; ", ""), H28, IF(ISTEXT(I28), " &lt;br&gt; ", ""), I28, IF(ISTEXT(J28), " &lt;br&gt; ", ""), J28)</f>
+        <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L28" s="8">
         <v>250</v>
@@ -5616,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -5625,17 +5256,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J29"/>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain Niko \n 3 uses remaining</v>
+        <f>CONCATENATE(F29, IF(ISTEXT(G29), " &lt;br&gt; ", ""), G29, IF(ISTEXT(H29), " &lt;br&gt; ", ""), H29, IF(ISTEXT(I29), " &lt;br&gt; ", ""), I29, IF(ISTEXT(J29), " &lt;br&gt; ", ""), J29)</f>
+        <v>Your Maps contain Niko</v>
       </c>
       <c r="L29" s="2">
         <v>125</v>
@@ -5655,7 +5284,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -5664,20 +5293,18 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J30"/>
       <c r="K30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain an additional Resonating Shrine \n 50% increased Duration of Shrine Effects on Players in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F30, IF(ISTEXT(G30), " &lt;br&gt; ", ""), G30, IF(ISTEXT(H30), " &lt;br&gt; ", ""), H30, IF(ISTEXT(I30), " &lt;br&gt; ", ""), I30, IF(ISTEXT(J30), " &lt;br&gt; ", ""), J30)</f>
+        <v>Your Maps contain an additional Resonating Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</v>
       </c>
       <c r="L30" s="2">
         <v>1000</v>
@@ -5694,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -5703,17 +5330,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J31"/>
       <c r="K31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Your Maps contain Ritual Altars \n 3 uses remaining</v>
+        <f>CONCATENATE(F31, IF(ISTEXT(G31), " &lt;br&gt; ", ""), G31, IF(ISTEXT(H31), " &lt;br&gt; ", ""), H31, IF(ISTEXT(I31), " &lt;br&gt; ", ""), I31, IF(ISTEXT(J31), " &lt;br&gt; ", ""), J31)</f>
+        <v>Your Maps contain Ritual Altars</v>
       </c>
       <c r="L31" s="2">
         <v>100</v>
@@ -5730,7 +5355,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -5739,20 +5364,18 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J32"/>
       <c r="K32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>The First 3 Possessed Monsters drop an additional Unique Item \n Your Maps contain an additional Tormented Graverobber \n 3 uses remaining</v>
+        <f>CONCATENATE(F32, IF(ISTEXT(G32), " &lt;br&gt; ", ""), G32, IF(ISTEXT(H32), " &lt;br&gt; ", ""), H32, IF(ISTEXT(I32), " &lt;br&gt; ", ""), I32, IF(ISTEXT(J32), " &lt;br&gt; ", ""), J32)</f>
+        <v>The First 3 Possessed Monsters drop an additional Unique Item &lt;br&gt; Your Maps contain an additional Tormented Graverobber</v>
       </c>
       <c r="L32" s="2">
         <v>250</v>
@@ -5763,7 +5386,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -5772,20 +5395,18 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J33"/>
       <c r="K33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>The First 3 Possessed Monsters drop an additional Map \n Your Maps contain an additional Tormented Heretic \n 3 uses remaining</v>
+        <f>CONCATENATE(F33, IF(ISTEXT(G33), " &lt;br&gt; ", ""), G33, IF(ISTEXT(H33), " &lt;br&gt; ", ""), H33, IF(ISTEXT(I33), " &lt;br&gt; ", ""), I33, IF(ISTEXT(J33), " &lt;br&gt; ", ""), J33)</f>
+        <v>The First 3 Possessed Monsters drop an additional Map &lt;br&gt; Your Maps contain an additional Tormented Heretic</v>
       </c>
       <c r="L33" s="2">
         <v>250</v>
@@ -5796,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -5805,26 +5426,24 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K65" si="1">CONCATENATE(F34, IF(ISTEXT(G34), " \n ", ""), G34, IF(ISTEXT(H34), " \n ", ""), H34, IF(ISTEXT(I34), " \n ", ""), I34, IF(ISTEXT(J34), " \n ", ""), J34)</f>
-        <v>Rogue Exiles deal 20% increased Damage \n Rogue Exiles drop 2 additional Jewels \n Rogue Exiles in your Maps have 20% increased Life \n Your Maps are inhabited by 2 additional Rogue Exiles \n 3 uses remaining</v>
+        <f>CONCATENATE(F34, IF(ISTEXT(G34), " &lt;br&gt; ", ""), G34, IF(ISTEXT(H34), " &lt;br&gt; ", ""), H34, IF(ISTEXT(I34), " &lt;br&gt; ", ""), I34, IF(ISTEXT(J34), " &lt;br&gt; ", ""), J34)</f>
+        <v>Rogue Exiles deal 20% increased Damage &lt;br&gt; Rogue Exiles drop 2 additional Jewels &lt;br&gt; Rogue Exiles in your Maps have 20% increased Life &lt;br&gt; Your Maps are inhabited by 2 additional Rogue Exiles</v>
       </c>
       <c r="L34" s="8">
         <v>500</v>
@@ -5838,7 +5457,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -5847,20 +5466,18 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J35"/>
       <c r="K35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Slaying Enemies close together can attract monsters from Beyond this realm \n 25% increased Beyond Demon Pack Size in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F35, IF(ISTEXT(G35), " &lt;br&gt; ", ""), G35, IF(ISTEXT(H35), " &lt;br&gt; ", ""), H35, IF(ISTEXT(I35), " &lt;br&gt; ", ""), I35, IF(ISTEXT(J35), " &lt;br&gt; ", ""), J35)</f>
+        <v>Slaying Enemies close together can attract monsters from Beyond this realm &lt;br&gt; 25% increased Beyond Demon Pack Size in your Maps</v>
       </c>
       <c r="L35" s="2">
         <v>250</v>
@@ -5874,7 +5491,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -5883,20 +5500,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J36"/>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Oils found in your Maps are 1 tier higher \n Cost of Building and Upgrading Blight Towers in your Maps is doubled \n 3 uses remaining</v>
+        <f>CONCATENATE(F36, IF(ISTEXT(G36), " &lt;br&gt; ", ""), G36, IF(ISTEXT(H36), " &lt;br&gt; ", ""), H36, IF(ISTEXT(I36), " &lt;br&gt; ", ""), I36, IF(ISTEXT(J36), " &lt;br&gt; ", ""), J36)</f>
+        <v>Oils found in your Maps are 1 tier higher &lt;br&gt; Cost of Building and Upgrading Blight Towers in your Maps is doubled</v>
       </c>
       <c r="L36" s="2">
         <v>50</v>
@@ -5913,7 +5528,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -5922,20 +5537,18 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J37"/>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses are accompanied by Bodyguards \n An additional Map drops on Completing your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F37, IF(ISTEXT(G37), " &lt;br&gt; ", ""), G37, IF(ISTEXT(H37), " &lt;br&gt; ", ""), H37, IF(ISTEXT(I37), " &lt;br&gt; ", ""), I37, IF(ISTEXT(J37), " &lt;br&gt; ", ""), J37)</f>
+        <v>Map Bosses are accompanied by Bodyguards &lt;br&gt; An additional Map drops on Completing your Maps</v>
       </c>
       <c r="L37" s="2">
         <v>250</v>
@@ -5949,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -5958,20 +5571,18 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" t="s">
-        <v>14</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J38"/>
       <c r="K38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items \n Items found in your Maps have 5% chance to be Corrupted \n 3 uses remaining</v>
+        <f>CONCATENATE(F38, IF(ISTEXT(G38), " &lt;br&gt; ", ""), G38, IF(ISTEXT(H38), " &lt;br&gt; ", ""), H38, IF(ISTEXT(I38), " &lt;br&gt; ", ""), I38, IF(ISTEXT(J38), " &lt;br&gt; ", ""), J38)</f>
+        <v>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted</v>
       </c>
       <c r="L38" s="2">
         <v>500</v>
@@ -5982,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -5991,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -6000,14 +5611,12 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
         <v>14</v>
       </c>
+      <c r="J39"/>
       <c r="K39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Conqueror Map \n 3 uses remaining</v>
+        <f>CONCATENATE(F39, IF(ISTEXT(G39), " &lt;br&gt; ", ""), G39, IF(ISTEXT(H39), " &lt;br&gt; ", ""), H39, IF(ISTEXT(I39), " &lt;br&gt; ", ""), I39, IF(ISTEXT(J39), " &lt;br&gt; ", ""), J39)</f>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Conqueror Map</v>
       </c>
       <c r="L39" s="2">
         <v>50</v>
@@ -6021,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -6030,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -6039,14 +5648,12 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J40"/>
       <c r="K40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+) \n 3 uses remaining</v>
+        <f>CONCATENATE(F40, IF(ISTEXT(G40), " &lt;br&gt; ", ""), G40, IF(ISTEXT(H40), " &lt;br&gt; ", ""), H40, IF(ISTEXT(I40), " &lt;br&gt; ", ""), I40, IF(ISTEXT(J40), " &lt;br&gt; ", ""), J40)</f>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+)</v>
       </c>
       <c r="L40" s="2">
         <v>50</v>
@@ -6060,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -6069,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -6080,12 +5687,10 @@
       <c r="H41" t="s">
         <v>12</v>
       </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+) \n 3 uses remaining</v>
+        <f>CONCATENATE(F41, IF(ISTEXT(G41), " &lt;br&gt; ", ""), G41, IF(ISTEXT(H41), " &lt;br&gt; ", ""), H41, IF(ISTEXT(I41), " &lt;br&gt; ", ""), I41, IF(ISTEXT(J41), " &lt;br&gt; ", ""), J41)</f>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+)</v>
       </c>
       <c r="L41" s="2">
         <v>50</v>
@@ -6099,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -6108,17 +5713,15 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
+      <c r="J42"/>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses drop 1 additional Unique Item \n 3 uses remaining</v>
+        <f>CONCATENATE(F42, IF(ISTEXT(G42), " &lt;br&gt; ", ""), G42, IF(ISTEXT(H42), " &lt;br&gt; ", ""), H42, IF(ISTEXT(I42), " &lt;br&gt; ", ""), I42, IF(ISTEXT(J42), " &lt;br&gt; ", ""), J42)</f>
+        <v>Map Bosses drop 1 additional Unique Item</v>
       </c>
       <c r="L42" s="2">
         <v>500</v>
@@ -6132,7 +5735,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -6141,20 +5744,18 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J43"/>
       <c r="K43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Breaches in your Maps belong to Chayula \n Breaches in your Maps contain 3 additional Clasped Hands \n 7 uses remaining</v>
+        <f>CONCATENATE(F43, IF(ISTEXT(G43), " &lt;br&gt; ", ""), G43, IF(ISTEXT(H43), " &lt;br&gt; ", ""), H43, IF(ISTEXT(I43), " &lt;br&gt; ", ""), I43, IF(ISTEXT(J43), " &lt;br&gt; ", ""), J43)</f>
+        <v>Breaches in your Maps belong to Chayula &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L43" s="2">
         <v>50</v>
@@ -6168,7 +5769,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -6177,20 +5778,18 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Breaches in your Maps belong to Esh \n Breaches in your Maps contain 3 additional Clasped Hands \n 5 uses remaining</v>
+        <f>CONCATENATE(F44, IF(ISTEXT(G44), " &lt;br&gt; ", ""), G44, IF(ISTEXT(H44), " &lt;br&gt; ", ""), H44, IF(ISTEXT(I44), " &lt;br&gt; ", ""), I44, IF(ISTEXT(J44), " &lt;br&gt; ", ""), J44)</f>
+        <v>Breaches in your Maps belong to Esh &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L44" s="2">
         <v>50</v>
@@ -6204,7 +5803,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -6213,20 +5812,18 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J45" t="s">
-        <v>23</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Breaches in your Maps belong to Tul \n Breaches in your Maps contain 3 additional Clasped Hands \n 4 uses remaining</v>
+        <f>CONCATENATE(F45, IF(ISTEXT(G45), " &lt;br&gt; ", ""), G45, IF(ISTEXT(H45), " &lt;br&gt; ", ""), H45, IF(ISTEXT(I45), " &lt;br&gt; ", ""), I45, IF(ISTEXT(J45), " &lt;br&gt; ", ""), J45)</f>
+        <v>Breaches in your Maps belong to Tul &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L45" s="2">
         <v>50</v>
@@ -6240,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -6249,20 +5846,18 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Breaches in your Maps belong to Uul-Netol \n Breaches in your Maps contain 3 additional Clasped Hands \n 6 uses remaining</v>
+        <f>CONCATENATE(F46, IF(ISTEXT(G46), " &lt;br&gt; ", ""), G46, IF(ISTEXT(H46), " &lt;br&gt; ", ""), H46, IF(ISTEXT(I46), " &lt;br&gt; ", ""), I46, IF(ISTEXT(J46), " &lt;br&gt; ", ""), J46)</f>
+        <v>Breaches in your Maps belong to Uul-Netol &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L46" s="2">
         <v>50</v>
@@ -6276,7 +5871,7 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -6285,20 +5880,18 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Breaches in your Maps belong to Xoph \n Breaches in your Maps contain 3 additional Clasped Hands \n 3 uses remaining</v>
+        <f>CONCATENATE(F47, IF(ISTEXT(G47), " &lt;br&gt; ", ""), G47, IF(ISTEXT(H47), " &lt;br&gt; ", ""), H47, IF(ISTEXT(I47), " &lt;br&gt; ", ""), I47, IF(ISTEXT(J47), " &lt;br&gt; ", ""), J47)</f>
+        <v>Breaches in your Maps belong to Xoph &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L47" s="2">
         <v>50</v>
@@ -6312,7 +5905,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -6321,17 +5914,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J48"/>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Create a copy of Beasts Captured in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F48, IF(ISTEXT(G48), " &lt;br&gt; ", ""), G48, IF(ISTEXT(H48), " &lt;br&gt; ", ""), H48, IF(ISTEXT(I48), " &lt;br&gt; ", ""), I48, IF(ISTEXT(J48), " &lt;br&gt; ", ""), J48)</f>
+        <v>Create a copy of Beasts Captured in your Maps</v>
       </c>
       <c r="L48" s="2">
         <v>50</v>
@@ -6348,7 +5939,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -6357,17 +5948,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J49"/>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Delirium Reward Bars fill 100% faster in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F49, IF(ISTEXT(G49), " &lt;br&gt; ", ""), G49, IF(ISTEXT(H49), " &lt;br&gt; ", ""), H49, IF(ISTEXT(I49), " &lt;br&gt; ", ""), I49, IF(ISTEXT(J49), " &lt;br&gt; ", ""), J49)</f>
+        <v>Delirium Reward Bars fill 100% faster in your Maps</v>
       </c>
       <c r="L49" s="2">
         <v>50</v>
@@ -6384,7 +5973,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -6393,17 +5982,15 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J50"/>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Your Maps contain 100% increased number of Runic Monster Markers \n 3 uses remaining</v>
+        <f>CONCATENATE(F50, IF(ISTEXT(G50), " &lt;br&gt; ", ""), G50, IF(ISTEXT(H50), " &lt;br&gt; ", ""), H50, IF(ISTEXT(I50), " &lt;br&gt; ", ""), I50, IF(ISTEXT(J50), " &lt;br&gt; ", ""), J50)</f>
+        <v>Your Maps contain 100% increased number of Runic Monster Markers</v>
       </c>
       <c r="L50" s="2">
         <v>50</v>
@@ -6420,7 +6007,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -6429,23 +6016,21 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J51"/>
       <c r="K51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses are accompanied by a mysterious Harbinger \n Map Bosses drop additional Currency Shards \n Harbingers in your Maps drop additional Currency Shards \n 3 uses remaining</v>
+        <f>CONCATENATE(F51, IF(ISTEXT(G51), " &lt;br&gt; ", ""), G51, IF(ISTEXT(H51), " &lt;br&gt; ", ""), H51, IF(ISTEXT(I51), " &lt;br&gt; ", ""), I51, IF(ISTEXT(J51), " &lt;br&gt; ", ""), J51)</f>
+        <v>Map Bosses are accompanied by a mysterious Harbinger &lt;br&gt; Map Bosses drop additional Currency Shards &lt;br&gt; Harbingers in your Maps drop additional Currency Shards</v>
       </c>
       <c r="L51" s="2">
         <v>250</v>
@@ -6459,7 +6044,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -6468,23 +6053,21 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J52"/>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Blue Plants \n 3 uses remaining</v>
+        <f>CONCATENATE(F52, IF(ISTEXT(G52), " &lt;br&gt; ", ""), G52, IF(ISTEXT(H52), " &lt;br&gt; ", ""), H52, IF(ISTEXT(I52), " &lt;br&gt; ", ""), I52, IF(ISTEXT(J52), " &lt;br&gt; ", ""), J52)</f>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Blue Plants</v>
       </c>
       <c r="L52" s="2">
         <v>50</v>
@@ -6501,7 +6084,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -6510,23 +6093,21 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J53"/>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Purple Plants \n 3 uses remaining</v>
+        <f>CONCATENATE(F53, IF(ISTEXT(G53), " &lt;br&gt; ", ""), G53, IF(ISTEXT(H53), " &lt;br&gt; ", ""), H53, IF(ISTEXT(I53), " &lt;br&gt; ", ""), I53, IF(ISTEXT(J53), " &lt;br&gt; ", ""), J53)</f>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Purple Plants</v>
       </c>
       <c r="L53" s="2">
         <v>50</v>
@@ -6543,7 +6124,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -6552,23 +6133,21 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" t="s">
-        <v>14</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J54"/>
       <c r="K54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Yellow Plants \n 3 uses remaining</v>
+        <f>CONCATENATE(F54, IF(ISTEXT(G54), " &lt;br&gt; ", ""), G54, IF(ISTEXT(H54), " &lt;br&gt; ", ""), H54, IF(ISTEXT(I54), " &lt;br&gt; ", ""), I54, IF(ISTEXT(J54), " &lt;br&gt; ", ""), J54)</f>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Yellow Plants</v>
       </c>
       <c r="L54" s="2">
         <v>50</v>
@@ -6585,7 +6164,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -6594,17 +6173,15 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
-      </c>
-      <c r="J55" t="s">
-        <v>14</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J55"/>
       <c r="K55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier \n 3 uses remaining</v>
+        <f>CONCATENATE(F55, IF(ISTEXT(G55), " &lt;br&gt; ", ""), G55, IF(ISTEXT(H55), " &lt;br&gt; ", ""), H55, IF(ISTEXT(I55), " &lt;br&gt; ", ""), I55, IF(ISTEXT(J55), " &lt;br&gt; ", ""), J55)</f>
+        <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier</v>
       </c>
       <c r="L55" s="2">
         <v>50</v>
@@ -6621,7 +6198,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -6630,20 +6207,18 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J56"/>
       <c r="K56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n Items dropped by Corrupted Vaal Monsters in your Maps have 25% chance to be Corrupted \n 3 uses remaining</v>
+        <f>CONCATENATE(F56, IF(ISTEXT(G56), " &lt;br&gt; ", ""), G56, IF(ISTEXT(H56), " &lt;br&gt; ", ""), H56, IF(ISTEXT(I56), " &lt;br&gt; ", ""), I56, IF(ISTEXT(J56), " &lt;br&gt; ", ""), J56)</f>
+        <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Items dropped by Corrupted Vaal Monsters in your Maps have 25% chance to be Corrupted</v>
       </c>
       <c r="L56" s="2">
         <v>250</v>
@@ -6657,7 +6232,7 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -6666,20 +6241,18 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" t="s">
-        <v>14</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J57"/>
       <c r="K57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Legion Monsters in your Maps have 100% more Life \n Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated \n 3 uses remaining</v>
+        <f>CONCATENATE(F57, IF(ISTEXT(G57), " &lt;br&gt; ", ""), G57, IF(ISTEXT(H57), " &lt;br&gt; ", ""), H57, IF(ISTEXT(I57), " &lt;br&gt; ", ""), I57, IF(ISTEXT(J57), " &lt;br&gt; ", ""), J57)</f>
+        <v>Legion Monsters in your Maps have 100% more Life &lt;br&gt; Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated</v>
       </c>
       <c r="L57" s="2">
         <v>50</v>
@@ -6696,7 +6269,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -6705,20 +6278,18 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" t="s">
-        <v>14</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J58"/>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Player's Life and Mana Recovery from Flasks are instant \n Your Maps contain 6 additional packs of Monsters that Heal \n 3 uses remaining</v>
+        <f>CONCATENATE(F58, IF(ISTEXT(G58), " &lt;br&gt; ", ""), G58, IF(ISTEXT(H58), " &lt;br&gt; ", ""), H58, IF(ISTEXT(I58), " &lt;br&gt; ", ""), I58, IF(ISTEXT(J58), " &lt;br&gt; ", ""), J58)</f>
+        <v>Player's Life and Mana Recovery from Flasks are instant &lt;br&gt; Your Maps contain 6 additional packs of Monsters that Heal</v>
       </c>
       <c r="L58" s="2">
         <v>1000</v>
@@ -6729,7 +6300,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -6738,17 +6309,15 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s">
-        <v>14</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J59"/>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Maps found in your Maps are Corrupted with 8 Modifiers \n 3 uses remaining</v>
+        <f>CONCATENATE(F59, IF(ISTEXT(G59), " &lt;br&gt; ", ""), G59, IF(ISTEXT(H59), " &lt;br&gt; ", ""), H59, IF(ISTEXT(I59), " &lt;br&gt; ", ""), I59, IF(ISTEXT(J59), " &lt;br&gt; ", ""), J59)</f>
+        <v>Maps found in your Maps are Corrupted with 8 Modifiers</v>
       </c>
       <c r="L59" s="2">
         <v>50</v>
@@ -6759,7 +6328,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -6768,20 +6337,18 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J60"/>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Map Bosses deal 20% increased Damage \n Your Maps have 20% Quality \n 3 uses remaining</v>
+        <f>CONCATENATE(F60, IF(ISTEXT(G60), " &lt;br&gt; ", ""), G60, IF(ISTEXT(H60), " &lt;br&gt; ", ""), H60, IF(ISTEXT(I60), " &lt;br&gt; ", ""), I60, IF(ISTEXT(J60), " &lt;br&gt; ", ""), J60)</f>
+        <v>Map Bosses deal 20% increased Damage &lt;br&gt; Your Maps have 20% Quality</v>
       </c>
       <c r="L60" s="2">
         <v>500</v>
@@ -6792,7 +6359,7 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -6801,20 +6368,18 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J61"/>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Catalysts dropped by Metamorphs in your Maps are Duplicated \n Metamorphs in your Maps have 100% more Life \n 3 uses remaining</v>
+        <f>CONCATENATE(F61, IF(ISTEXT(G61), " &lt;br&gt; ", ""), G61, IF(ISTEXT(H61), " &lt;br&gt; ", ""), H61, IF(ISTEXT(I61), " &lt;br&gt; ", ""), I61, IF(ISTEXT(J61), " &lt;br&gt; ", ""), J61)</f>
+        <v>Catalysts dropped by Metamorphs in your Maps are Duplicated &lt;br&gt; Metamorphs in your Maps have 100% more Life</v>
       </c>
       <c r="L61" s="2">
         <v>50</v>
@@ -6831,7 +6396,7 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -6840,17 +6405,15 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" t="s">
-        <v>14</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J62"/>
       <c r="K62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Your Maps contain a Mirror of Delirium \n 3 uses remaining</v>
+        <f>CONCATENATE(F62, IF(ISTEXT(G62), " &lt;br&gt; ", ""), G62, IF(ISTEXT(H62), " &lt;br&gt; ", ""), H62, IF(ISTEXT(I62), " &lt;br&gt; ", ""), I62, IF(ISTEXT(J62), " &lt;br&gt; ", ""), J62)</f>
+        <v>Your Maps contain a Mirror of Delirium</v>
       </c>
       <c r="L62" s="2">
         <v>100</v>
@@ -6867,7 +6430,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -6876,20 +6439,18 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J63" s="7"/>
       <c r="K63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Your Maps contain 6 additional packs of Monsters that Convert when Killed \n 3 uses remaining</v>
+        <f>CONCATENATE(F63, IF(ISTEXT(G63), " &lt;br&gt; ", ""), G63, IF(ISTEXT(H63), " &lt;br&gt; ", ""), H63, IF(ISTEXT(I63), " &lt;br&gt; ", ""), I63, IF(ISTEXT(J63), " &lt;br&gt; ", ""), J63)</f>
+        <v>Your Maps contain 6 additional packs of Monsters that Convert when Killed</v>
       </c>
       <c r="L63" s="8">
         <v>1000</v>
@@ -6903,7 +6464,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -6912,22 +6473,20 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J64" s="7"/>
       <c r="K64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Players and their Minions cannot take Reflected Damage \n Your Maps contain 4 additional Packs with Mirrored Rare Monsters \n 3 uses remaining</v>
+        <f>CONCATENATE(F64, IF(ISTEXT(G64), " &lt;br&gt; ", ""), G64, IF(ISTEXT(H64), " &lt;br&gt; ", ""), H64, IF(ISTEXT(I64), " &lt;br&gt; ", ""), I64, IF(ISTEXT(J64), " &lt;br&gt; ", ""), J64)</f>
+        <v>Players and their Minions cannot take Reflected Damage &lt;br&gt; Your Maps contain 4 additional Packs with Mirrored Rare Monsters</v>
       </c>
       <c r="L64" s="8">
         <v>1000</v>
@@ -6938,7 +6497,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -6947,20 +6506,18 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" t="s">
-        <v>14</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J65"/>
       <c r="K65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>The First 3 Possessed Monsters drop an additional Gilded Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</v>
+        <f>CONCATENATE(F65, IF(ISTEXT(G65), " &lt;br&gt; ", ""), G65, IF(ISTEXT(H65), " &lt;br&gt; ", ""), H65, IF(ISTEXT(I65), " &lt;br&gt; ", ""), I65, IF(ISTEXT(J65), " &lt;br&gt; ", ""), J65)</f>
+        <v>The First 3 Possessed Monsters drop an additional Gilded Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L65" s="2">
         <v>60</v>
@@ -6971,7 +6528,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
@@ -6980,20 +6537,18 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J66" t="s">
-        <v>14</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J66"/>
       <c r="K66" s="2" t="str">
-        <f t="shared" ref="K66:K97" si="2">CONCATENATE(F66, IF(ISTEXT(G66), " \n ", ""), G66, IF(ISTEXT(H66), " \n ", ""), H66, IF(ISTEXT(I66), " \n ", ""), I66, IF(ISTEXT(J66), " \n ", ""), J66)</f>
-        <v>The First 3 Possessed Monsters drop an additional Polished Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</v>
+        <f>CONCATENATE(F66, IF(ISTEXT(G66), " &lt;br&gt; ", ""), G66, IF(ISTEXT(H66), " &lt;br&gt; ", ""), H66, IF(ISTEXT(I66), " &lt;br&gt; ", ""), I66, IF(ISTEXT(J66), " &lt;br&gt; ", ""), J66)</f>
+        <v>The First 3 Possessed Monsters drop an additional Polished Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L66" s="2">
         <v>175</v>
@@ -7004,7 +6559,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
@@ -7013,20 +6568,18 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" t="s">
-        <v>14</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J67"/>
       <c r="K67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>The First 3 Possessed Monsters drop an additional Rusted Scarab \n Your Maps contain an additional Tormented Betrayer \n 3 uses remaining</v>
+        <f>CONCATENATE(F67, IF(ISTEXT(G67), " &lt;br&gt; ", ""), G67, IF(ISTEXT(H67), " &lt;br&gt; ", ""), H67, IF(ISTEXT(I67), " &lt;br&gt; ", ""), I67, IF(ISTEXT(J67), " &lt;br&gt; ", ""), J67)</f>
+        <v>The First 3 Possessed Monsters drop an additional Rusted Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L67" s="6">
         <v>520</v>
@@ -7037,7 +6590,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
@@ -7046,20 +6599,18 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J68"/>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Map Bosses have 20% increased Life \n Quality bonus of your Maps also applies to Rarity of Items found \n 3 uses remaining</v>
+        <f>CONCATENATE(F68, IF(ISTEXT(G68), " &lt;br&gt; ", ""), G68, IF(ISTEXT(H68), " &lt;br&gt; ", ""), H68, IF(ISTEXT(I68), " &lt;br&gt; ", ""), I68, IF(ISTEXT(J68), " &lt;br&gt; ", ""), J68)</f>
+        <v>Map Bosses have 20% increased Life &lt;br&gt; Quality bonus of your Maps also applies to Rarity of Items found</v>
       </c>
       <c r="L68" s="2">
         <v>500</v>
@@ -7070,7 +6621,7 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -7079,24 +6630,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I69" s="8"/>
-      <c r="J69" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J69" s="7"/>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Your Magic Maps contain 4 additional packs of Magic Monsters \n Your Normal Maps contain 4 additional packs of Normal Monsters \n Your Rare Maps contain 4 additional Rare Monster packs \n 3 uses remaining</v>
+        <f>CONCATENATE(F69, IF(ISTEXT(G69), " &lt;br&gt; ", ""), G69, IF(ISTEXT(H69), " &lt;br&gt; ", ""), H69, IF(ISTEXT(I69), " &lt;br&gt; ", ""), I69, IF(ISTEXT(J69), " &lt;br&gt; ", ""), J69)</f>
+        <v>Your Magic Maps contain 4 additional packs of Magic Monsters &lt;br&gt; Your Normal Maps contain 4 additional packs of Normal Monsters &lt;br&gt; Your Rare Maps contain 4 additional Rare Monster packs</v>
       </c>
       <c r="L69" s="8">
         <v>1000</v>
@@ -7113,7 +6662,7 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -7122,17 +6671,15 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J70"/>
       <c r="K70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time \n 3 uses remaining</v>
+        <f>CONCATENATE(F70, IF(ISTEXT(G70), " &lt;br&gt; ", ""), G70, IF(ISTEXT(H70), " &lt;br&gt; ", ""), H70, IF(ISTEXT(I70), " &lt;br&gt; ", ""), I70, IF(ISTEXT(J70), " &lt;br&gt; ", ""), J70)</f>
+        <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time</v>
       </c>
       <c r="L70" s="2">
         <v>50</v>
@@ -7149,7 +6696,7 @@
         <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -7158,24 +6705,22 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I71" s="8"/>
-      <c r="J71" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J71" s="7"/>
       <c r="K71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Strongbox Monsters are Enraged \n Strongbox Monsters have 500% increased Item Quantity \n Your Maps contain an additional Strongbox \n 3 uses remaining</v>
+        <f>CONCATENATE(F71, IF(ISTEXT(G71), " &lt;br&gt; ", ""), G71, IF(ISTEXT(H71), " &lt;br&gt; ", ""), H71, IF(ISTEXT(I71), " &lt;br&gt; ", ""), I71, IF(ISTEXT(J71), " &lt;br&gt; ", ""), J71)</f>
+        <v>Strongbox Monsters are Enraged &lt;br&gt; Strongbox Monsters have 500% increased Item Quantity &lt;br&gt; Your Maps contain an additional Strongbox</v>
       </c>
       <c r="L71" s="8">
         <v>250</v>
@@ -7192,7 +6737,7 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -7201,17 +6746,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J72" t="s">
-        <v>14</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J72"/>
       <c r="K72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps \n 3 uses remaining</v>
+        <f>CONCATENATE(F72, IF(ISTEXT(G72), " &lt;br&gt; ", ""), G72, IF(ISTEXT(H72), " &lt;br&gt; ", ""), H72, IF(ISTEXT(I72), " &lt;br&gt; ", ""), I72, IF(ISTEXT(J72), " &lt;br&gt; ", ""), J72)</f>
+        <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps</v>
       </c>
       <c r="L72" s="2">
         <v>50</v>
@@ -7228,7 +6771,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -7237,17 +6780,15 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" t="s">
-        <v>14</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J73"/>
       <c r="K73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Unique Monsters drop Corrupted Items \n 3 uses remaining</v>
+        <f>CONCATENATE(F73, IF(ISTEXT(G73), " &lt;br&gt; ", ""), G73, IF(ISTEXT(H73), " &lt;br&gt; ", ""), H73, IF(ISTEXT(I73), " &lt;br&gt; ", ""), I73, IF(ISTEXT(J73), " &lt;br&gt; ", ""), J73)</f>
+        <v>Unique Monsters drop Corrupted Items</v>
       </c>
       <c r="L73" s="2">
         <v>250</v>
@@ -7264,7 +6805,7 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -7273,20 +6814,18 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
-      </c>
-      <c r="J74" t="s">
-        <v>14</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J74"/>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Players' Vaal Skills do not apply Soul Gain Prevention \n Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n 3 uses remaining</v>
+        <f>CONCATENATE(F74, IF(ISTEXT(G74), " &lt;br&gt; ", ""), G74, IF(ISTEXT(H74), " &lt;br&gt; ", ""), H74, IF(ISTEXT(I74), " &lt;br&gt; ", ""), I74, IF(ISTEXT(J74), " &lt;br&gt; ", ""), J74)</f>
+        <v>Players' Vaal Skills do not apply Soul Gain Prevention &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</v>
       </c>
       <c r="L74" s="2">
         <v>250</v>
@@ -7300,7 +6839,7 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -7309,23 +6848,21 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H75" t="s">
-        <v>118</v>
-      </c>
-      <c r="J75" t="s">
-        <v>14</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J75"/>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used \n Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used \n 3 uses remaining</v>
+        <f>CONCATENATE(F75, IF(ISTEXT(G75), " &lt;br&gt; ", ""), G75, IF(ISTEXT(H75), " &lt;br&gt; ", ""), H75, IF(ISTEXT(I75), " &lt;br&gt; ", ""), I75, IF(ISTEXT(J75), " &lt;br&gt; ", ""), J75)</f>
+        <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used</v>
       </c>
       <c r="L75" s="2">
         <v>250</v>
@@ -7339,7 +6876,7 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -7348,20 +6885,18 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
-      </c>
-      <c r="J76" t="s">
-        <v>14</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J76"/>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Players gain an additional Vaal Soul on Kill \n Your Maps contain 6 additional packs of Corrupted Vaal Monsters \n 3 uses remaining</v>
+        <f>CONCATENATE(F76, IF(ISTEXT(G76), " &lt;br&gt; ", ""), G76, IF(ISTEXT(H76), " &lt;br&gt; ", ""), H76, IF(ISTEXT(I76), " &lt;br&gt; ", ""), I76, IF(ISTEXT(J76), " &lt;br&gt; ", ""), J76)</f>
+        <v>Players gain an additional Vaal Soul on Kill &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</v>
       </c>
       <c r="L76" s="2">
         <v>500</v>
@@ -7390,11 +6925,11 @@
         <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" ref="K77:K97" si="3">CONCATENATE(F77, IF(ISTEXT(G77), " \n ", ""), G77, IF(ISTEXT(H77), " \n ", ""), H77, IF(ISTEXT(I77), " \n ", ""), I77, IF(ISTEXT(J77), " \n ", ""), J77)</f>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+) \n 15 uses remaining</v>
+        <f t="shared" ref="K66:K97" si="0">CONCATENATE(F77, IF(ISTEXT(G77), " &lt;br&gt; ", ""), G77, IF(ISTEXT(H77), " &lt;br&gt; ", ""), H77, IF(ISTEXT(I77), " &lt;br&gt; ", ""), I77, IF(ISTEXT(J77), " &lt;br&gt; ", ""), J77)</f>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+) &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L77" s="2">
         <v>50</v>
@@ -7420,14 +6955,14 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+) \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+) &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L78" s="2">
         <v>50</v>
@@ -7453,14 +6988,14 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Map Bosses deal 100% more Damage \n Map Bosses have 200% more Life \n Final Map Boss in each Map drops an additional Conqueror Map \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Conqueror Map &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L79" s="2">
         <v>50</v>
@@ -7480,17 +7015,17 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J80" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Items found in your Identified Maps are Identified \n 25% increased Pack Size in your Unidentified Maps \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Items found in your Identified Maps are Identified &lt;br&gt; 25% increased Pack Size in your Unidentified Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L80" s="2">
         <v>250</v>
@@ -7507,17 +7042,17 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J81" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and Monsters take 14% increased Fire Damage \n Your Maps contain 8 additional packs of Monsters that deal Fire Damage \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and Monsters take 14% increased Fire Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Fire Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L81" s="2">
         <v>1000</v>
@@ -7537,17 +7072,17 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J82" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and Monsters take 14% increased Cold Damage \n Your Maps contain 8 additional packs of Monsters that deal Cold Damage \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and Monsters take 14% increased Cold Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Cold Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L82" s="2">
         <v>1000</v>
@@ -7567,17 +7102,17 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J83" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and Monsters take 14% increased Lightning Damage \n Your Maps contain 8 additional packs of Monsters that deal Lightning Damage \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and Monsters take 14% increased Lightning Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Lightning Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L83" s="2">
         <v>1000</v>
@@ -7597,17 +7132,17 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J84" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and Monsters take 14% increased Physical Damage \n Your Maps contain 8 additional packs of Monsters that deal Physical Damage \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and Monsters take 14% increased Physical Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Physical Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L84" s="2">
         <v>1000</v>
@@ -7627,17 +7162,17 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G85" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J85" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and Monsters take 14% increased Chaos Damage \n Your Maps contain 8 additional packs of Monsters that deal Chaos Damage \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and Monsters take 14% increased Chaos Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Chaos Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L85" s="2">
         <v>1000</v>
@@ -7658,14 +7193,14 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J86" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Unique Monsters drop Corrupted Items \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Unique Monsters drop Corrupted Items &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L86" s="2">
         <v>250</v>
@@ -7689,14 +7224,14 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain Einhar \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain Einhar &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L87" s="2">
         <v>125</v>
@@ -7719,14 +7254,14 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J88" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain Alva \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain Alva &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L88" s="2">
         <v>125</v>
@@ -7750,14 +7285,14 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J89" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain Niko \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain Niko &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L89" s="2">
         <v>125</v>
@@ -7780,14 +7315,14 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain Jun \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain Jun &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L90" s="2">
         <v>125</v>
@@ -7810,20 +7345,20 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J91" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain 3 additional Strongboxes \n Strongboxes in your Maps are Corrupted \n Strongboxes in your Maps are at least Rare \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain 3 additional Strongboxes &lt;br&gt; Strongboxes in your Maps are Corrupted &lt;br&gt; Strongboxes in your Maps are at least Rare &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L91" s="2">
         <v>500</v>
@@ -7843,17 +7378,17 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J92" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K92" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Map Bosses of your Corrupted Maps drop 3 additional Vaal Items \n Items found in your Maps have 5% chance to be Corrupted \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Map Bosses of your Corrupted Maps drop 3 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L92" s="2">
         <v>500</v>
@@ -7870,14 +7405,14 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J93" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K93" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>30% increased Magic Pack Size \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>30% increased Magic Pack Size &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L93" s="2">
         <v>500</v>
@@ -7897,20 +7432,20 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G94" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H94" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Magic Maps contain 5 additional packs of Magic Monsters \n Your Normal Maps contain 5 additional packs of Normal Monsters \n Your Rare Maps contain 5 additional Rare Monster packs \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Magic Maps contain 5 additional packs of Magic Monsters &lt;br&gt; Your Normal Maps contain 5 additional packs of Normal Monsters &lt;br&gt; Your Rare Maps contain 5 additional Rare Monster packs &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L94" s="2">
         <v>1000</v>
@@ -7933,17 +7468,17 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J95" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Players and their Minions cannot take Reflected Damage \n Your Maps contain 5 additional Packs with Mirrored Rare Monsters \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Players and their Minions cannot take Reflected Damage &lt;br&gt; Your Maps contain 5 additional Packs with Mirrored Rare Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L95" s="2">
         <v>1000</v>
@@ -7960,17 +7495,17 @@
         <v>1</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L96" s="8">
         <v>50</v>
@@ -7987,17 +7522,17 @@
         <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels \n 15 uses remaining</v>
+        <f t="shared" si="0"/>
+        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L97" s="8">
         <v>250</v>
@@ -8014,17 +7549,17 @@
         <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" ref="K98:K129" si="4">CONCATENATE(F98, IF(ISTEXT(G98), " \n ", ""), G98, IF(ISTEXT(H98), " \n ", ""), H98, IF(ISTEXT(I98), " \n ", ""), I98, IF(ISTEXT(J98), " \n ", ""), J98)</f>
-        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels \n 15 uses remaining</v>
+        <f t="shared" ref="K98:K129" si="1">CONCATENATE(F98, IF(ISTEXT(G98), " &lt;br&gt; ", ""), G98, IF(ISTEXT(H98), " &lt;br&gt; ", ""), H98, IF(ISTEXT(I98), " &lt;br&gt; ", ""), I98, IF(ISTEXT(J98), " &lt;br&gt; ", ""), J98)</f>
+        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L98" s="8">
         <v>250</v>
@@ -8041,17 +7576,17 @@
         <v>1</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L99" s="8">
         <v>250</v>
@@ -8068,17 +7603,17 @@
         <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L100" s="8">
         <v>250</v>
@@ -8095,21 +7630,21 @@
         <v>1</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Strongbox Monsters are Enraged \n Strongbox Monsters have 600% increased Item Quantity \n Your Maps contain an additional Strongbox \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Strongbox Monsters are Enraged &lt;br&gt; Strongbox Monsters have 600% increased Item Quantity &lt;br&gt; Your Maps contain an additional Strongbox &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L101" s="8">
         <v>250</v>
@@ -8132,14 +7667,14 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J102" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain hunted traitors \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain hunted traitors &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L102" s="2">
         <v>250</v>
@@ -8159,14 +7694,14 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J103" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain 8 additional packs of Monsters that Convert when Killed \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain 8 additional packs of Monsters that Convert when Killed &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L103" s="2">
         <v>1000</v>
@@ -8186,17 +7721,17 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G104" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J104" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Player's Life and Mana Recovery from Flasks are instant \n Your Maps contain 8 additional packs of Monsters that Heal \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Player's Life and Mana Recovery from Flasks are instant &lt;br&gt; Your Maps contain 8 additional packs of Monsters that Heal &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L104" s="2">
         <v>1000</v>
@@ -8213,17 +7748,17 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J105" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Map Bosses are accompanied by Bodyguards \n 2 additional Maps drop on Completing your Maps \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Map Bosses are accompanied by Bodyguards &lt;br&gt; 2 additional Maps drop on Completing your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L105" s="2">
         <v>250</v>
@@ -8243,17 +7778,17 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G106" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J106" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps can contain Breaches \n Your Maps contain 2 additional Breaches \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps can contain Breaches &lt;br&gt; Your Maps contain 2 additional Breaches &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L106" s="2">
         <v>250</v>
@@ -8273,17 +7808,17 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J107" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Breaches in your Maps belong to Xoph \n Breaches in your Maps contain 3 additional Clasped Hands \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Breaches in your Maps belong to Xoph &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L107" s="2">
         <v>50</v>
@@ -8303,17 +7838,17 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J108" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Breaches in your Maps belong to Tul \n Breaches in your Maps contain 3 additional Clasped Hands \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Breaches in your Maps belong to Tul &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L108" s="2">
         <v>50</v>
@@ -8333,17 +7868,17 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J109" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Breaches in your Maps belong to Esh \n Breaches in your Maps contain 3 additional Clasped Hands \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Breaches in your Maps belong to Esh &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L109" s="2">
         <v>50</v>
@@ -8363,17 +7898,17 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J110" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Breaches in your Maps belong to Uul-Netol \n Breaches in your Maps contain 3 additional Clasped Hands \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Breaches in your Maps belong to Uul-Netol &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L110" s="2">
         <v>50</v>
@@ -8393,17 +7928,17 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J111" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Breaches in your Maps belong to Chayula \n Breaches in your Maps contain 3 additional Clasped Hands \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Breaches in your Maps belong to Chayula &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L111" s="2">
         <v>50</v>
@@ -8423,17 +7958,17 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J112" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain 2 additional Abysses \n Your Maps can contain Abysses \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain 2 additional Abysses &lt;br&gt; Your Maps can contain Abysses &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L112" s="2">
         <v>250</v>
@@ -8453,20 +7988,20 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H113" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain an additional Gloom Shrine \n Your Maps contain an additional Shrine \n 50% increased Duration of Shrine Effects on Players in your Maps \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain an additional Gloom Shrine &lt;br&gt; Your Maps contain an additional Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L113" s="2">
         <v>1000</v>
@@ -8489,17 +8024,17 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J114" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption \n Your Maps contain 2 additional Essences \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption &lt;br&gt; Your Maps contain 2 additional Essences &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L114" s="2">
         <v>500</v>
@@ -8522,14 +8057,14 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J115" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Maps found in your Maps are Corrupted with 8 Modifiers \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Maps found in your Maps are Corrupted with 8 Modifiers &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L115" s="2">
         <v>50</v>
@@ -8552,14 +8087,14 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J116" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Create a copy of Beasts Captured in your Maps \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Create a copy of Beasts Captured in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L116" s="2">
         <v>50</v>
@@ -8582,14 +8117,14 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J117" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Your Maps contain 100% increased number of Runic Monster Markers \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Your Maps contain 100% increased number of Runic Monster Markers &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L117" s="2">
         <v>50</v>
@@ -8612,17 +8147,17 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J118" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Legion Monsters in your Maps have 100% more Life \n Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Legion Monsters in your Maps have 100% more Life &lt;br&gt; Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L118" s="2">
         <v>50</v>
@@ -8645,17 +8180,17 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Catalysts dropped by Metamorphs in your Maps are Duplicated \n Metamorphs in your Maps have 100% more Life \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Catalysts dropped by Metamorphs in your Maps are Duplicated &lt;br&gt; Metamorphs in your Maps have 100% more Life &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L119" s="2">
         <v>50</v>
@@ -8678,17 +8213,17 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G120" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J120" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Oils found in your Maps are 1 tier higher \n Cost of Building and Upgrading Blight Towers in your Maps is doubled \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Oils found in your Maps are 1 tier higher &lt;br&gt; Cost of Building and Upgrading Blight Towers in your Maps is doubled &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L120" s="2">
         <v>50</v>
@@ -8711,14 +8246,14 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J121" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L121" s="2">
         <v>50</v>
@@ -8741,14 +8276,14 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J122" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Delirium Reward Bars fill 100% faster in your Maps \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Delirium Reward Bars fill 100% faster in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L122" s="2">
         <v>50</v>
@@ -8771,20 +8306,20 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H123" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J123" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Blue Plants \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Blue Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L123" s="2">
         <v>50</v>
@@ -8807,20 +8342,20 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J124" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Purple Plants \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Purple Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L124" s="2">
         <v>50</v>
@@ -8843,20 +8378,20 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H125" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J125" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated \n Harvest Monsters in your Maps have 100% more Life \n Harvests in your Maps contain at least one Crop of Yellow Plants \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Yellow Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L125" s="2">
         <v>50</v>
@@ -8879,14 +8414,14 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J126" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L126" s="2">
         <v>50</v>
@@ -8909,14 +8444,14 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J127" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L127" s="2">
         <v>50</v>
@@ -8939,20 +8474,20 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H128" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J128" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Map Bosses are accompanied by a mysterious Harbinger \n Map Bosses drop additional Currency Shards \n Harbingers in your Maps drop additional Currency Shards \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Map Bosses are accompanied by a mysterious Harbinger &lt;br&gt; Map Bosses drop additional Currency Shards &lt;br&gt; Harbingers in your Maps drop additional Currency Shards &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L128" s="2">
         <v>250</v>
@@ -8972,17 +8507,17 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G129" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J129" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Players gain an additional Vaal Soul on Kill \n Your Maps contain 8 additional packs of Corrupted Vaal Monsters \n 15 uses remaining</v>
+        <f t="shared" si="1"/>
+        <v>Players gain an additional Vaal Soul on Kill &lt;br&gt; Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L129" s="2">
         <v>500</v>
@@ -9002,17 +8537,17 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G130" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J130" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K130" s="2" t="str">
-        <f t="shared" ref="K130:K142" si="5">CONCATENATE(F130, IF(ISTEXT(G130), " \n ", ""), G130, IF(ISTEXT(H130), " \n ", ""), H130, IF(ISTEXT(I130), " \n ", ""), I130, IF(ISTEXT(J130), " \n ", ""), J130)</f>
-        <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters \n Items dropped by Corrupted Vaal Monsters in your Maps have 30% chance to be Corrupted \n 15 uses remaining</v>
+        <f t="shared" ref="K130:K161" si="2">CONCATENATE(F130, IF(ISTEXT(G130), " &lt;br&gt; ", ""), G130, IF(ISTEXT(H130), " &lt;br&gt; ", ""), H130, IF(ISTEXT(I130), " &lt;br&gt; ", ""), I130, IF(ISTEXT(J130), " &lt;br&gt; ", ""), J130)</f>
+        <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; Items dropped by Corrupted Vaal Monsters in your Maps have 30% chance to be Corrupted &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L130" s="2">
         <v>250</v>
@@ -9032,17 +8567,17 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G131" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J131" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K131" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Slaying Enemies close together can attract monsters from Beyond this realm \n 35% increased Beyond Demon Pack Size in your Maps \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Slaying Enemies close together can attract monsters from Beyond this realm &lt;br&gt; 35% increased Beyond Demon Pack Size in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L131" s="2">
         <v>250</v>
@@ -9062,17 +8597,17 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G132" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J132" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K132" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>The First 3 Possessed Monsters drop an additional Winged Scarab \n Your Maps contain an additional Tormented Betrayer \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>The First 3 Possessed Monsters drop an additional Winged Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L132" s="2">
         <v>50</v>
@@ -9089,17 +8624,17 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G133" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J133" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K133" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>The First 3 Possessed Monsters drop an additional Map \n Your Maps contain an additional Tormented Heretic \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>The First 3 Possessed Monsters drop an additional Map &lt;br&gt; Your Maps contain an additional Tormented Heretic &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L133" s="2">
         <v>250</v>
@@ -9116,20 +8651,20 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G134" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H134" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J134" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K134" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters \n Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used \n Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L134" s="2">
         <v>250</v>
@@ -9149,17 +8684,17 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J135" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K135" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Players' Vaal Skills do not apply Soul Gain Prevention \n Your Maps contain 8 additional packs of Corrupted Vaal Monsters \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Players' Vaal Skills do not apply Soul Gain Prevention &lt;br&gt; Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L135" s="2">
         <v>250</v>
@@ -9179,14 +8714,14 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J136" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K136" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain an additional Legion Encounter \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain an additional Legion Encounter &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L136" s="2">
         <v>250</v>
@@ -9209,14 +8744,14 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
+        <v>115</v>
+      </c>
+      <c r="J137" t="s">
         <v>121</v>
       </c>
-      <c r="J137" t="s">
-        <v>127</v>
-      </c>
       <c r="K137" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Area contains Metamorph Monsters \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Area contains Metamorph Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L137" s="2">
         <v>250</v>
@@ -9239,14 +8774,14 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J138" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K138" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain a Blight Encounter \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain a Blight Encounter &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L138" s="2">
         <v>250</v>
@@ -9272,14 +8807,14 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J139" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K139" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain a Mirror of Delirium \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain a Mirror of Delirium &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L139" s="2">
         <v>100</v>
@@ -9302,14 +8837,14 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J140" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K140" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain The Sacred Grove \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain The Sacred Grove &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L140" s="2">
         <v>100</v>
@@ -9332,14 +8867,14 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J141" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K141" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Area contains a Smuggler's Cache \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Area contains a Smuggler's Cache &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L141" s="2">
         <v>250</v>
@@ -9362,14 +8897,14 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J142" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K142" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Your Maps contain Ritual Altars \n 15 uses remaining</v>
+        <f t="shared" si="2"/>
+        <v>Your Maps contain Ritual Altars &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L142" s="2">
         <v>100</v>

--- a/data/app2/raw_sextant_info.xlsx
+++ b/data/app2/raw_sextant_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\PycharmProjects\PathOfExile-SkillGemMargins\data\app2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ACEB55-1B46-45C8-BEFB-D449DC4492AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A46579-B000-414C-BA68-267AC3A7392C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="awksextants" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="417">
   <si>
     <t>Item</t>
   </si>
@@ -1075,6 +1075,216 @@
   </si>
   <si>
     <t>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted</t>
+  </si>
+  <si>
+    <t>name_old</t>
+  </si>
+  <si>
+    <t>Yellow Plants</t>
+  </si>
+  <si>
+    <t>Strongbox Enraged</t>
+  </si>
+  <si>
+    <t>8 Modifiers</t>
+  </si>
+  <si>
+    <t>Conqueror Map</t>
+  </si>
+  <si>
+    <t>Blue Plants</t>
+  </si>
+  <si>
+    <t>Purple Plants</t>
+  </si>
+  <si>
+    <t>Flasks Instant</t>
+  </si>
+  <si>
+    <t>Sacred Grove</t>
+  </si>
+  <si>
+    <t>Delirium Reward</t>
+  </si>
+  <si>
+    <t>Mysterious Harbinger</t>
+  </si>
+  <si>
+    <t>Copy of Beasts</t>
+  </si>
+  <si>
+    <t>Splinters Emblems Duplicate</t>
+  </si>
+  <si>
+    <t>Runic Monster Markers</t>
+  </si>
+  <si>
+    <t>Shaper Guardian</t>
+  </si>
+  <si>
+    <t>Elder Guardian</t>
+  </si>
+  <si>
+    <t>Gilded Scarab</t>
+  </si>
+  <si>
+    <t>Chayula</t>
+  </si>
+  <si>
+    <t>Oils Tier</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Legion</t>
+  </si>
+  <si>
+    <t>Strongbox Corrupted</t>
+  </si>
+  <si>
+    <t>Alva</t>
+  </si>
+  <si>
+    <t>Beyond</t>
+  </si>
+  <si>
+    <t>Contracts Implicit</t>
+  </si>
+  <si>
+    <t>Ritual Altars</t>
+  </si>
+  <si>
+    <t>Catalysts Duplicate</t>
+  </si>
+  <si>
+    <t>Ritual Rerolling</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>Alluring</t>
+  </si>
+  <si>
+    <t>Breach</t>
+  </si>
+  <si>
+    <t>Essence</t>
+  </si>
+  <si>
+    <t>Hunted Traitors</t>
+  </si>
+  <si>
+    <t>Magic Pack Size</t>
+  </si>
+  <si>
+    <t>Map 20% Quality</t>
+  </si>
+  <si>
+    <t>Smuggler's Cache</t>
+  </si>
+  <si>
+    <t>Soul Gain Prevention</t>
+  </si>
+  <si>
+    <t>Unidentified Map</t>
+  </si>
+  <si>
+    <t>Fire Monsters</t>
+  </si>
+  <si>
+    <t>Gloom Shrine</t>
+  </si>
+  <si>
+    <t>Map Quality to Rarity</t>
+  </si>
+  <si>
+    <t>Unique Monsters Drop Corrupted</t>
+  </si>
+  <si>
+    <t>Uul-Netol</t>
+  </si>
+  <si>
+    <t>Bodyguards</t>
+  </si>
+  <si>
+    <t>Niko</t>
+  </si>
+  <si>
+    <t>Physical Monsters</t>
+  </si>
+  <si>
+    <t>Polished Scarab</t>
+  </si>
+  <si>
+    <t>Rare Map Rare Packs</t>
+  </si>
+  <si>
+    <t>Reflected</t>
+  </si>
+  <si>
+    <t>Resonating Shrine</t>
+  </si>
+  <si>
+    <t>Rogue Exiles</t>
+  </si>
+  <si>
+    <t>Tormented Graverobber</t>
+  </si>
+  <si>
+    <t>Tormented Heretic</t>
+  </si>
+  <si>
+    <t>Vaal Soul On Kill</t>
+  </si>
+  <si>
+    <t>Blight</t>
+  </si>
+  <si>
+    <t>Boss Drop Unique</t>
+  </si>
+  <si>
+    <t>Boss Drop Vaal</t>
+  </si>
+  <si>
+    <t>Chaos Monsters</t>
+  </si>
+  <si>
+    <t>Cold Monsters</t>
+  </si>
+  <si>
+    <t>Convert Monsters</t>
+  </si>
+  <si>
+    <t>Einhar</t>
+  </si>
+  <si>
+    <t>Esh</t>
+  </si>
+  <si>
+    <t>Lightning Monsters</t>
+  </si>
+  <si>
+    <t>Metamorph</t>
+  </si>
+  <si>
+    <t>Mortal/Sacrifice Fragment</t>
+  </si>
+  <si>
+    <t>Rusted Scarab</t>
+  </si>
+  <si>
+    <t>Tul</t>
+  </si>
+  <si>
+    <t>Xoph</t>
+  </si>
+  <si>
+    <t>Mysterious Barrels</t>
+  </si>
+  <si>
+    <t>Vaal Monsters Items Corrupted</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1442,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1260,6 +1469,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1331,14 +1541,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59304F30-7F44-4753-AC6C-A9D34EAF8611}" name="Tabelle2" displayName="Tabelle2" ref="A1:U76" totalsRowShown="0">
-  <autoFilter ref="A1:U76" xr:uid="{59304F30-7F44-4753-AC6C-A9D34EAF8611}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U76">
-    <sortCondition ref="B1:B76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59304F30-7F44-4753-AC6C-A9D34EAF8611}" name="Tabelle2" displayName="Tabelle2" ref="A1:V76" totalsRowShown="0">
+  <autoFilter ref="A1:V76" xr:uid="{59304F30-7F44-4753-AC6C-A9D34EAF8611}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V76">
+    <sortCondition ref="C1:C76"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{8596DA49-841B-45A2-A94A-6DAC35EB3E3E}" name="Nr"/>
-    <tableColumn id="2" xr3:uid="{BBCD39C1-3AA3-4BB7-947A-0E25B489FF1F}" name="name"/>
+    <tableColumn id="22" xr3:uid="{8CB26301-6AA5-49ED-AF36-4008DDFB347E}" name="name"/>
+    <tableColumn id="2" xr3:uid="{BBCD39C1-3AA3-4BB7-947A-0E25B489FF1F}" name="name_old"/>
     <tableColumn id="3" xr3:uid="{8616F699-1FD8-4B6C-B248-DB67A6A21241}" name="Item"/>
     <tableColumn id="4" xr3:uid="{32D460D8-4F5A-43E5-82B2-363D71999E62}" name="Level"/>
     <tableColumn id="21" xr3:uid="{723577F4-9CA3-445C-B5B1-B8E1A2292D54}" name="icon" dataDxfId="20"/>
@@ -1386,18 +1597,18 @@
     <tableColumn id="7" xr3:uid="{15C88C65-3A63-4D1E-94DE-1ECA93266514}" name="Line2" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{7725FD09-F6DA-49DA-8F30-FD3F4C5485DE}" name="Line3" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{3E3809F2-6934-4BD3-B2F6-368198FB9230}" name="Spalte1"/>
-    <tableColumn id="10" xr3:uid="{D6846561-B0C4-4EA6-A635-83B6A73E0A87}" name="full_text" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{D6846561-B0C4-4EA6-A635-83B6A73E0A87}" name="full_text" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE(F2, IF(ISTEXT(G2), " &lt;br&gt; ", ""), G2, IF(ISTEXT(H2), " &lt;br&gt; ", ""), H2, IF(ISTEXT(I2), " &lt;br&gt; ", ""), I2, IF(ISTEXT(J2), " &lt;br&gt; ", ""), J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC3B91E6-26FC-40C6-923F-E00C2C0D28D8}" name="w_default" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{53703125-E178-4CF5-8E76-754196F4748E}" name="w_has_atlas_mission" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{299B55AA-52D6-4287-834A-8033A945FB9F}" name="w_hall_of_grandmasters" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{04E0CC50-9D0D-4F5F-9F27-EAE54F543FF0}" name="w_no_strongboxes" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{F19F533B-C7D3-4F46-9399-DF89F7D0F951}" name="w_unique_map" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{11687D08-167E-4B44-919C-A8AC11872EF4}" name="w_no_monster_packs" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{472998AE-39EE-4400-8375-52EBE7AE80C1}" name="w_no_boss" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{435F9930-4E7E-4C5C-B54E-4D95AF5CD500}" name="w_map_has_blight" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{8733EDAF-DDF4-44F3-B245-7904C2E56841}" name="w_vault_of_atziri" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{AC3B91E6-26FC-40C6-923F-E00C2C0D28D8}" name="w_default" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{53703125-E178-4CF5-8E76-754196F4748E}" name="w_has_atlas_mission" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{299B55AA-52D6-4287-834A-8033A945FB9F}" name="w_hall_of_grandmasters" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{04E0CC50-9D0D-4F5F-9F27-EAE54F543FF0}" name="w_no_strongboxes" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{F19F533B-C7D3-4F46-9399-DF89F7D0F951}" name="w_unique_map" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{11687D08-167E-4B44-919C-A8AC11872EF4}" name="w_no_monster_packs" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{472998AE-39EE-4400-8375-52EBE7AE80C1}" name="w_no_boss" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{435F9930-4E7E-4C5C-B54E-4D95AF5CD500}" name="w_map_has_blight" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{8733EDAF-DDF4-44F3-B245-7904C2E56841}" name="w_vault_of_atziri" dataDxfId="0"/>
     <tableColumn id="20" xr3:uid="{824A2071-879C-413C-94D2-69BB11FBA7FD}" name="w_elder_occupied"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1726,29 +1937,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF697F-64C5-40DC-80C3-2D5431A76125}">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="11" max="11" width="55.296875" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" customWidth="1"/>
-    <col min="13" max="13" width="20.3984375" customWidth="1"/>
-    <col min="14" max="14" width="23.59765625" customWidth="1"/>
-    <col min="15" max="15" width="18.796875" customWidth="1"/>
-    <col min="16" max="16" width="15.8984375" customWidth="1"/>
-    <col min="17" max="17" width="21.296875" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" customWidth="1"/>
-    <col min="19" max="19" width="18.796875" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="18.296875" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="12" max="12" width="55.296875" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" customWidth="1"/>
+    <col min="14" max="14" width="20.3984375" customWidth="1"/>
+    <col min="15" max="15" width="23.59765625" customWidth="1"/>
+    <col min="16" max="16" width="18.796875" customWidth="1"/>
+    <col min="17" max="17" width="15.8984375" customWidth="1"/>
+    <col min="18" max="18" width="21.296875" customWidth="1"/>
+    <col min="19" max="19" width="12.09765625" customWidth="1"/>
+    <col min="20" max="20" width="18.796875" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1756,1987 +1968,2170 @@
         <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>300</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>232</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>222</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>223</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>224</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>225</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>227</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>228</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>229</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>230</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>328</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>500</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>329</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>500</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>330</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1000</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
         <v>204</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>331</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1000</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>332</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1000</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
         <v>206</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>333</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1000</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>334</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1000</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>41</v>
       </c>
       <c r="B11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" t="s">
         <v>185</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>335</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>250</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" t="s">
         <v>184</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>125</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
         <v>208</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>116</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>116</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>250</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>336</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>250</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>125</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>44</v>
       </c>
       <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" t="s">
         <v>176</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>337</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>500</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>42</v>
       </c>
       <c r="B17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" t="s">
         <v>187</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>73</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>338</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1000</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>73</v>
       </c>
       <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" t="s">
         <v>162</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>118</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>100</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>119</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>119</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>250</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
         <v>186</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>56</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>250</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>36</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>125</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>69</v>
       </c>
       <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>114</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>114</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>250</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>70</v>
       </c>
       <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
         <v>195</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>115</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>115</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>250</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" t="s">
         <v>218</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>52</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" t="s">
         <v>218</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>52</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>52</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" t="s">
         <v>218</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>52</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>52</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" t="s">
         <v>218</v>
       </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>52</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>52</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" t="s">
         <v>218</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>52</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
         <v>196</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>125</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>43</v>
       </c>
       <c r="B30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" t="s">
         <v>197</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>73</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>339</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1000</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>75</v>
       </c>
       <c r="B31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>120</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>120</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>100</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>66</v>
       </c>
       <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" t="s">
         <v>219</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>109</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>340</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>65</v>
       </c>
       <c r="B33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" t="s">
         <v>209</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>107</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>108</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>341</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>22</v>
       </c>
       <c r="B34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" t="s">
         <v>210</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>269</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>43</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>44</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>45</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>46</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>342</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>500</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>61</v>
       </c>
       <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" t="s">
         <v>174</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>102</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>343</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>250</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>50</v>
       </c>
       <c r="B36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" t="s">
         <v>171</v>
       </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>84</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>85</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>344</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>50</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" t="s">
         <v>198</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>60</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>61</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>345</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>250</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" t="s">
         <v>211</v>
       </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>40</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>41</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>346</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>14</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>301</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>50</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>10</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>11</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>13</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>302</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>50</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" t="s">
         <v>156</v>
       </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>303</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>50</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" t="s">
         <v>212</v>
       </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="L42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>500</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>69</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>65</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>304</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>50</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" t="s">
         <v>199</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>67</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>65</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>305</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>50</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>37</v>
       </c>
       <c r="B45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>66</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>65</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>306</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>50</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>39</v>
       </c>
       <c r="B46" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" t="s">
         <v>189</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>68</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>65</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>307</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>50</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>36</v>
       </c>
       <c r="B47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" t="s">
         <v>200</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>64</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>65</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>308</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>50</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>78</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>78</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>50</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" t="s">
         <v>164</v>
       </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>87</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>87</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>50</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>79</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>79</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>50</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>58</v>
       </c>
       <c r="B51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" t="s">
         <v>160</v>
       </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>246</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>95</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>96</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>97</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>309</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>250</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>53</v>
       </c>
       <c r="B52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" t="s">
         <v>165</v>
       </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>88</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>89</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>90</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>310</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>50</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>54</v>
       </c>
       <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>88</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>89</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>91</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>311</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>50</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" t="s">
         <v>154</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>243</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>88</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>89</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>92</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>312</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>50</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" t="s">
         <v>181</v>
       </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>93</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>93</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>50</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>60</v>
       </c>
       <c r="B56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>99</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>100</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>313</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>250</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>48</v>
       </c>
       <c r="B57" t="s">
+        <v>359</v>
+      </c>
+      <c r="C57" t="s">
         <v>170</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>80</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>81</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>314</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>50</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>33</v>
       </c>
       <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
         <v>182</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>58</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>59</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>315</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>45</v>
       </c>
       <c r="B59" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" t="s">
         <v>158</v>
       </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>77</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>77</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" t="s">
         <v>201</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>28</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>29</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>316</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>49</v>
       </c>
       <c r="B61" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" t="s">
         <v>178</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>82</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>83</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>317</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>50</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>72</v>
       </c>
@@ -3744,313 +4139,343 @@
         <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>117</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>117</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>100</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>32</v>
       </c>
       <c r="B63" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" t="s">
         <v>213</v>
       </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>57</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>57</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>1000</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" t="s">
         <v>214</v>
       </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>50</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>51</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>318</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>106</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>104</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>319</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" t="s">
         <v>190</v>
       </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>105</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>104</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>320</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="B67" t="s">
+        <v>412</v>
+      </c>
+      <c r="C67" t="s">
         <v>215</v>
       </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>103</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>104</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>321</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>13</v>
       </c>
       <c r="B68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C68" t="s">
         <v>216</v>
       </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>30</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>31</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>322</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>23</v>
       </c>
       <c r="B69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" t="s">
         <v>191</v>
       </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>47</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>48</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>49</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>323</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>1000</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>57</v>
       </c>
       <c r="B70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" t="s">
         <v>179</v>
       </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>94</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>94</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>50</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>30</v>
       </c>
       <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" t="s">
         <v>159</v>
       </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>53</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>54</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>55</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>324</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>250</v>
       </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>51</v>
       </c>
@@ -4058,158 +4483,173 @@
         <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>86</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>86</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>50</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>27</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>27</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>250</v>
       </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>68</v>
       </c>
       <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" t="s">
         <v>202</v>
       </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>113</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>99</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>325</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>250</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>67</v>
       </c>
       <c r="B75" t="s">
+        <v>411</v>
+      </c>
+      <c r="C75" t="s">
         <v>221</v>
       </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>99</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>111</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>112</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>326</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>250</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>59</v>
       </c>
       <c r="B76" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" t="s">
         <v>217</v>
       </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>98</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>99</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>327</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>500</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>0</v>
       </c>
     </row>
@@ -4354,7 +4794,7 @@
       </c>
       <c r="J2"/>
       <c r="K2" s="2" t="str">
-        <f>CONCATENATE(F2, IF(ISTEXT(G2), " &lt;br&gt; ", ""), G2, IF(ISTEXT(H2), " &lt;br&gt; ", ""), H2, IF(ISTEXT(I2), " &lt;br&gt; ", ""), I2, IF(ISTEXT(J2), " &lt;br&gt; ", ""), J2)</f>
+        <f t="shared" ref="K2:K33" si="0">CONCATENATE(F2, IF(ISTEXT(G2), " &lt;br&gt; ", ""), G2, IF(ISTEXT(H2), " &lt;br&gt; ", ""), H2, IF(ISTEXT(I2), " &lt;br&gt; ", ""), I2, IF(ISTEXT(J2), " &lt;br&gt; ", ""), J2)</f>
         <v>Your Maps contain 2 additional Strongboxes &lt;br&gt; Strongboxes in your Maps are Corrupted &lt;br&gt; Strongboxes in your Maps are at least Rare</v>
       </c>
       <c r="L2" s="2">
@@ -4388,7 +4828,7 @@
       </c>
       <c r="J3"/>
       <c r="K3" s="2" t="str">
-        <f>CONCATENATE(F3, IF(ISTEXT(G3), " &lt;br&gt; ", ""), G3, IF(ISTEXT(H3), " &lt;br&gt; ", ""), H3, IF(ISTEXT(I3), " &lt;br&gt; ", ""), I3, IF(ISTEXT(J3), " &lt;br&gt; ", ""), J3)</f>
+        <f t="shared" si="0"/>
         <v>Items found in your Identified Maps are Identified &lt;br&gt; 20% increased Pack Size in your Unidentified Maps</v>
       </c>
       <c r="L3" s="2">
@@ -4419,7 +4859,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="7"/>
       <c r="K4" s="2" t="str">
-        <f>CONCATENATE(F4, IF(ISTEXT(G4), " &lt;br&gt; ", ""), G4, IF(ISTEXT(H4), " &lt;br&gt; ", ""), H4, IF(ISTEXT(I4), " &lt;br&gt; ", ""), I4, IF(ISTEXT(J4), " &lt;br&gt; ", ""), J4)</f>
+        <f t="shared" si="0"/>
         <v>25% increased Magic Pack Size</v>
       </c>
       <c r="L4" s="8">
@@ -4453,7 +4893,7 @@
       </c>
       <c r="J5"/>
       <c r="K5" s="2" t="str">
-        <f>CONCATENATE(F5, IF(ISTEXT(G5), " &lt;br&gt; ", ""), G5, IF(ISTEXT(H5), " &lt;br&gt; ", ""), H5, IF(ISTEXT(I5), " &lt;br&gt; ", ""), I5, IF(ISTEXT(J5), " &lt;br&gt; ", ""), J5)</f>
+        <f t="shared" si="0"/>
         <v>Players and Monsters take 12% increased Chaos Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Chaos Damage</v>
       </c>
       <c r="L5" s="2">
@@ -4487,7 +4927,7 @@
       </c>
       <c r="J6"/>
       <c r="K6" s="2" t="str">
-        <f>CONCATENATE(F6, IF(ISTEXT(G6), " &lt;br&gt; ", ""), G6, IF(ISTEXT(H6), " &lt;br&gt; ", ""), H6, IF(ISTEXT(I6), " &lt;br&gt; ", ""), I6, IF(ISTEXT(J6), " &lt;br&gt; ", ""), J6)</f>
+        <f t="shared" si="0"/>
         <v>Players and Monsters take 12% increased Cold Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Cold Damage</v>
       </c>
       <c r="L6" s="2">
@@ -4521,7 +4961,7 @@
       </c>
       <c r="J7"/>
       <c r="K7" s="2" t="str">
-        <f>CONCATENATE(F7, IF(ISTEXT(G7), " &lt;br&gt; ", ""), G7, IF(ISTEXT(H7), " &lt;br&gt; ", ""), H7, IF(ISTEXT(I7), " &lt;br&gt; ", ""), I7, IF(ISTEXT(J7), " &lt;br&gt; ", ""), J7)</f>
+        <f t="shared" si="0"/>
         <v>Players and Monsters take 12% increased Fire Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Fire Damage</v>
       </c>
       <c r="L7" s="2">
@@ -4555,7 +4995,7 @@
       </c>
       <c r="J8"/>
       <c r="K8" s="2" t="str">
-        <f>CONCATENATE(F8, IF(ISTEXT(G8), " &lt;br&gt; ", ""), G8, IF(ISTEXT(H8), " &lt;br&gt; ", ""), H8, IF(ISTEXT(I8), " &lt;br&gt; ", ""), I8, IF(ISTEXT(J8), " &lt;br&gt; ", ""), J8)</f>
+        <f t="shared" si="0"/>
         <v>Players and Monsters take 12% increased Lightning Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Lightning Damage</v>
       </c>
       <c r="L8" s="2">
@@ -4589,7 +5029,7 @@
       </c>
       <c r="J9"/>
       <c r="K9" s="2" t="str">
-        <f>CONCATENATE(F9, IF(ISTEXT(G9), " &lt;br&gt; ", ""), G9, IF(ISTEXT(H9), " &lt;br&gt; ", ""), H9, IF(ISTEXT(I9), " &lt;br&gt; ", ""), I9, IF(ISTEXT(J9), " &lt;br&gt; ", ""), J9)</f>
+        <f t="shared" si="0"/>
         <v>Players and Monsters take 12% increased Physical Damage &lt;br&gt; Your Maps contain 6 additional packs of Monsters that deal Physical Damage</v>
       </c>
       <c r="L9" s="2">
@@ -4620,7 +5060,7 @@
       </c>
       <c r="J10"/>
       <c r="K10" s="2" t="str">
-        <f>CONCATENATE(F10, IF(ISTEXT(G10), " &lt;br&gt; ", ""), G10, IF(ISTEXT(H10), " &lt;br&gt; ", ""), H10, IF(ISTEXT(I10), " &lt;br&gt; ", ""), I10, IF(ISTEXT(J10), " &lt;br&gt; ", ""), J10)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps are Alluring</v>
       </c>
       <c r="L10" s="2">
@@ -4651,7 +5091,7 @@
       </c>
       <c r="J11"/>
       <c r="K11" s="2" t="str">
-        <f>CONCATENATE(F11, IF(ISTEXT(G11), " &lt;br&gt; ", ""), G11, IF(ISTEXT(H11), " &lt;br&gt; ", ""), H11, IF(ISTEXT(I11), " &lt;br&gt; ", ""), I11, IF(ISTEXT(J11), " &lt;br&gt; ", ""), J11)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain an additional Abyss &lt;br&gt; Your Maps can contain Abysses</v>
       </c>
       <c r="L11" s="2">
@@ -4682,7 +5122,7 @@
       </c>
       <c r="J12"/>
       <c r="K12" s="2" t="str">
-        <f>CONCATENATE(F12, IF(ISTEXT(G12), " &lt;br&gt; ", ""), G12, IF(ISTEXT(H12), " &lt;br&gt; ", ""), H12, IF(ISTEXT(I12), " &lt;br&gt; ", ""), I12, IF(ISTEXT(J12), " &lt;br&gt; ", ""), J12)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain Alva</v>
       </c>
       <c r="L12" s="2">
@@ -4719,7 +5159,7 @@
       </c>
       <c r="J13"/>
       <c r="K13" s="2" t="str">
-        <f>CONCATENATE(F13, IF(ISTEXT(G13), " &lt;br&gt; ", ""), G13, IF(ISTEXT(H13), " &lt;br&gt; ", ""), H13, IF(ISTEXT(I13), " &lt;br&gt; ", ""), I13, IF(ISTEXT(J13), " &lt;br&gt; ", ""), J13)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain a Blight Encounter</v>
       </c>
       <c r="L13" s="2">
@@ -4759,7 +5199,7 @@
       </c>
       <c r="J14"/>
       <c r="K14" s="2" t="str">
-        <f>CONCATENATE(F14, IF(ISTEXT(G14), " &lt;br&gt; ", ""), G14, IF(ISTEXT(H14), " &lt;br&gt; ", ""), H14, IF(ISTEXT(I14), " &lt;br&gt; ", ""), I14, IF(ISTEXT(J14), " &lt;br&gt; ", ""), J14)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps can contain Breaches &lt;br&gt; Your Maps contain an additional Breach</v>
       </c>
       <c r="L14" s="2">
@@ -4790,7 +5230,7 @@
       </c>
       <c r="J15"/>
       <c r="K15" s="2" t="str">
-        <f>CONCATENATE(F15, IF(ISTEXT(G15), " &lt;br&gt; ", ""), G15, IF(ISTEXT(H15), " &lt;br&gt; ", ""), H15, IF(ISTEXT(I15), " &lt;br&gt; ", ""), I15, IF(ISTEXT(J15), " &lt;br&gt; ", ""), J15)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain Einhar</v>
       </c>
       <c r="L15" s="2">
@@ -4830,7 +5270,7 @@
       </c>
       <c r="J16"/>
       <c r="K16" s="2" t="str">
-        <f>CONCATENATE(F16, IF(ISTEXT(G16), " &lt;br&gt; ", ""), G16, IF(ISTEXT(H16), " &lt;br&gt; ", ""), H16, IF(ISTEXT(I16), " &lt;br&gt; ", ""), I16, IF(ISTEXT(J16), " &lt;br&gt; ", ""), J16)</f>
+        <f t="shared" si="0"/>
         <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption &lt;br&gt; Your Maps contain an additional Essence</v>
       </c>
       <c r="L16" s="2">
@@ -4867,7 +5307,7 @@
       </c>
       <c r="J17"/>
       <c r="K17" s="2" t="str">
-        <f>CONCATENATE(F17, IF(ISTEXT(G17), " &lt;br&gt; ", ""), G17, IF(ISTEXT(H17), " &lt;br&gt; ", ""), H17, IF(ISTEXT(I17), " &lt;br&gt; ", ""), I17, IF(ISTEXT(J17), " &lt;br&gt; ", ""), J17)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain an additional Gloom Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</v>
       </c>
       <c r="L17" s="2">
@@ -4901,7 +5341,7 @@
       </c>
       <c r="J18"/>
       <c r="K18" s="2" t="str">
-        <f>CONCATENATE(F18, IF(ISTEXT(G18), " &lt;br&gt; ", ""), G18, IF(ISTEXT(H18), " &lt;br&gt; ", ""), H18, IF(ISTEXT(I18), " &lt;br&gt; ", ""), I18, IF(ISTEXT(J18), " &lt;br&gt; ", ""), J18)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain The Sacred Grove</v>
       </c>
       <c r="L18" s="2">
@@ -4935,7 +5375,7 @@
       </c>
       <c r="J19"/>
       <c r="K19" s="2" t="str">
-        <f>CONCATENATE(F19, IF(ISTEXT(G19), " &lt;br&gt; ", ""), G19, IF(ISTEXT(H19), " &lt;br&gt; ", ""), H19, IF(ISTEXT(I19), " &lt;br&gt; ", ""), I19, IF(ISTEXT(J19), " &lt;br&gt; ", ""), J19)</f>
+        <f t="shared" si="0"/>
         <v>Area contains a Smuggler's Cache</v>
       </c>
       <c r="L19" s="2">
@@ -4972,7 +5412,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="2" t="str">
-        <f>CONCATENATE(F20, IF(ISTEXT(G20), " &lt;br&gt; ", ""), G20, IF(ISTEXT(H20), " &lt;br&gt; ", ""), H20, IF(ISTEXT(I20), " &lt;br&gt; ", ""), I20, IF(ISTEXT(J20), " &lt;br&gt; ", ""), J20)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain hunted traitors</v>
       </c>
       <c r="L20" s="8">
@@ -5003,7 +5443,7 @@
       </c>
       <c r="J21"/>
       <c r="K21" s="2" t="str">
-        <f>CONCATENATE(F21, IF(ISTEXT(G21), " &lt;br&gt; ", ""), G21, IF(ISTEXT(H21), " &lt;br&gt; ", ""), H21, IF(ISTEXT(I21), " &lt;br&gt; ", ""), I21, IF(ISTEXT(J21), " &lt;br&gt; ", ""), J21)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain Jun</v>
       </c>
       <c r="L21" s="2">
@@ -5040,7 +5480,7 @@
       </c>
       <c r="J22"/>
       <c r="K22" s="2" t="str">
-        <f>CONCATENATE(F22, IF(ISTEXT(G22), " &lt;br&gt; ", ""), G22, IF(ISTEXT(H22), " &lt;br&gt; ", ""), H22, IF(ISTEXT(I22), " &lt;br&gt; ", ""), I22, IF(ISTEXT(J22), " &lt;br&gt; ", ""), J22)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain an additional Legion Encounter</v>
       </c>
       <c r="L22" s="2">
@@ -5074,7 +5514,7 @@
       </c>
       <c r="J23"/>
       <c r="K23" s="2" t="str">
-        <f>CONCATENATE(F23, IF(ISTEXT(G23), " &lt;br&gt; ", ""), G23, IF(ISTEXT(H23), " &lt;br&gt; ", ""), H23, IF(ISTEXT(I23), " &lt;br&gt; ", ""), I23, IF(ISTEXT(J23), " &lt;br&gt; ", ""), J23)</f>
+        <f t="shared" si="0"/>
         <v>Area contains Metamorph Monsters</v>
       </c>
       <c r="L23" s="2">
@@ -5111,7 +5551,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="7"/>
       <c r="K24" s="2" t="str">
-        <f>CONCATENATE(F24, IF(ISTEXT(G24), " &lt;br&gt; ", ""), G24, IF(ISTEXT(H24), " &lt;br&gt; ", ""), H24, IF(ISTEXT(I24), " &lt;br&gt; ", ""), I24, IF(ISTEXT(J24), " &lt;br&gt; ", ""), J24)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L24" s="8">
@@ -5142,7 +5582,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
       <c r="K25" s="2" t="str">
-        <f>CONCATENATE(F25, IF(ISTEXT(G25), " &lt;br&gt; ", ""), G25, IF(ISTEXT(H25), " &lt;br&gt; ", ""), H25, IF(ISTEXT(I25), " &lt;br&gt; ", ""), I25, IF(ISTEXT(J25), " &lt;br&gt; ", ""), J25)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L25" s="8">
@@ -5173,7 +5613,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
       <c r="K26" s="2" t="str">
-        <f>CONCATENATE(F26, IF(ISTEXT(G26), " &lt;br&gt; ", ""), G26, IF(ISTEXT(H26), " &lt;br&gt; ", ""), H26, IF(ISTEXT(I26), " &lt;br&gt; ", ""), I26, IF(ISTEXT(J26), " &lt;br&gt; ", ""), J26)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L26" s="8">
@@ -5204,7 +5644,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
       <c r="K27" s="2" t="str">
-        <f>CONCATENATE(F27, IF(ISTEXT(G27), " &lt;br&gt; ", ""), G27, IF(ISTEXT(H27), " &lt;br&gt; ", ""), H27, IF(ISTEXT(I27), " &lt;br&gt; ", ""), I27, IF(ISTEXT(J27), " &lt;br&gt; ", ""), J27)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L27" s="8">
@@ -5235,7 +5675,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
       <c r="K28" s="2" t="str">
-        <f>CONCATENATE(F28, IF(ISTEXT(G28), " &lt;br&gt; ", ""), G28, IF(ISTEXT(H28), " &lt;br&gt; ", ""), H28, IF(ISTEXT(I28), " &lt;br&gt; ", ""), I28, IF(ISTEXT(J28), " &lt;br&gt; ", ""), J28)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain 25 additional Clusters of Mysterious Barrels</v>
       </c>
       <c r="L28" s="8">
@@ -5263,7 +5703,7 @@
       </c>
       <c r="J29"/>
       <c r="K29" s="2" t="str">
-        <f>CONCATENATE(F29, IF(ISTEXT(G29), " &lt;br&gt; ", ""), G29, IF(ISTEXT(H29), " &lt;br&gt; ", ""), H29, IF(ISTEXT(I29), " &lt;br&gt; ", ""), I29, IF(ISTEXT(J29), " &lt;br&gt; ", ""), J29)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain Niko</v>
       </c>
       <c r="L29" s="2">
@@ -5303,7 +5743,7 @@
       </c>
       <c r="J30"/>
       <c r="K30" s="2" t="str">
-        <f>CONCATENATE(F30, IF(ISTEXT(G30), " &lt;br&gt; ", ""), G30, IF(ISTEXT(H30), " &lt;br&gt; ", ""), H30, IF(ISTEXT(I30), " &lt;br&gt; ", ""), I30, IF(ISTEXT(J30), " &lt;br&gt; ", ""), J30)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain an additional Resonating Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps</v>
       </c>
       <c r="L30" s="2">
@@ -5337,7 +5777,7 @@
       </c>
       <c r="J31"/>
       <c r="K31" s="2" t="str">
-        <f>CONCATENATE(F31, IF(ISTEXT(G31), " &lt;br&gt; ", ""), G31, IF(ISTEXT(H31), " &lt;br&gt; ", ""), H31, IF(ISTEXT(I31), " &lt;br&gt; ", ""), I31, IF(ISTEXT(J31), " &lt;br&gt; ", ""), J31)</f>
+        <f t="shared" si="0"/>
         <v>Your Maps contain Ritual Altars</v>
       </c>
       <c r="L31" s="2">
@@ -5374,7 +5814,7 @@
       </c>
       <c r="J32"/>
       <c r="K32" s="2" t="str">
-        <f>CONCATENATE(F32, IF(ISTEXT(G32), " &lt;br&gt; ", ""), G32, IF(ISTEXT(H32), " &lt;br&gt; ", ""), H32, IF(ISTEXT(I32), " &lt;br&gt; ", ""), I32, IF(ISTEXT(J32), " &lt;br&gt; ", ""), J32)</f>
+        <f t="shared" si="0"/>
         <v>The First 3 Possessed Monsters drop an additional Unique Item &lt;br&gt; Your Maps contain an additional Tormented Graverobber</v>
       </c>
       <c r="L32" s="2">
@@ -5405,7 +5845,7 @@
       </c>
       <c r="J33"/>
       <c r="K33" s="2" t="str">
-        <f>CONCATENATE(F33, IF(ISTEXT(G33), " &lt;br&gt; ", ""), G33, IF(ISTEXT(H33), " &lt;br&gt; ", ""), H33, IF(ISTEXT(I33), " &lt;br&gt; ", ""), I33, IF(ISTEXT(J33), " &lt;br&gt; ", ""), J33)</f>
+        <f t="shared" si="0"/>
         <v>The First 3 Possessed Monsters drop an additional Map &lt;br&gt; Your Maps contain an additional Tormented Heretic</v>
       </c>
       <c r="L33" s="2">
@@ -5442,7 +5882,7 @@
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="2" t="str">
-        <f>CONCATENATE(F34, IF(ISTEXT(G34), " &lt;br&gt; ", ""), G34, IF(ISTEXT(H34), " &lt;br&gt; ", ""), H34, IF(ISTEXT(I34), " &lt;br&gt; ", ""), I34, IF(ISTEXT(J34), " &lt;br&gt; ", ""), J34)</f>
+        <f t="shared" ref="K34:K65" si="1">CONCATENATE(F34, IF(ISTEXT(G34), " &lt;br&gt; ", ""), G34, IF(ISTEXT(H34), " &lt;br&gt; ", ""), H34, IF(ISTEXT(I34), " &lt;br&gt; ", ""), I34, IF(ISTEXT(J34), " &lt;br&gt; ", ""), J34)</f>
         <v>Rogue Exiles deal 20% increased Damage &lt;br&gt; Rogue Exiles drop 2 additional Jewels &lt;br&gt; Rogue Exiles in your Maps have 20% increased Life &lt;br&gt; Your Maps are inhabited by 2 additional Rogue Exiles</v>
       </c>
       <c r="L34" s="8">
@@ -5476,7 +5916,7 @@
       </c>
       <c r="J35"/>
       <c r="K35" s="2" t="str">
-        <f>CONCATENATE(F35, IF(ISTEXT(G35), " &lt;br&gt; ", ""), G35, IF(ISTEXT(H35), " &lt;br&gt; ", ""), H35, IF(ISTEXT(I35), " &lt;br&gt; ", ""), I35, IF(ISTEXT(J35), " &lt;br&gt; ", ""), J35)</f>
+        <f t="shared" si="1"/>
         <v>Slaying Enemies close together can attract monsters from Beyond this realm &lt;br&gt; 25% increased Beyond Demon Pack Size in your Maps</v>
       </c>
       <c r="L35" s="2">
@@ -5510,7 +5950,7 @@
       </c>
       <c r="J36"/>
       <c r="K36" s="2" t="str">
-        <f>CONCATENATE(F36, IF(ISTEXT(G36), " &lt;br&gt; ", ""), G36, IF(ISTEXT(H36), " &lt;br&gt; ", ""), H36, IF(ISTEXT(I36), " &lt;br&gt; ", ""), I36, IF(ISTEXT(J36), " &lt;br&gt; ", ""), J36)</f>
+        <f t="shared" si="1"/>
         <v>Oils found in your Maps are 1 tier higher &lt;br&gt; Cost of Building and Upgrading Blight Towers in your Maps is doubled</v>
       </c>
       <c r="L36" s="2">
@@ -5547,7 +5987,7 @@
       </c>
       <c r="J37"/>
       <c r="K37" s="2" t="str">
-        <f>CONCATENATE(F37, IF(ISTEXT(G37), " &lt;br&gt; ", ""), G37, IF(ISTEXT(H37), " &lt;br&gt; ", ""), H37, IF(ISTEXT(I37), " &lt;br&gt; ", ""), I37, IF(ISTEXT(J37), " &lt;br&gt; ", ""), J37)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses are accompanied by Bodyguards &lt;br&gt; An additional Map drops on Completing your Maps</v>
       </c>
       <c r="L37" s="2">
@@ -5581,7 +6021,7 @@
       </c>
       <c r="J38"/>
       <c r="K38" s="2" t="str">
-        <f>CONCATENATE(F38, IF(ISTEXT(G38), " &lt;br&gt; ", ""), G38, IF(ISTEXT(H38), " &lt;br&gt; ", ""), H38, IF(ISTEXT(I38), " &lt;br&gt; ", ""), I38, IF(ISTEXT(J38), " &lt;br&gt; ", ""), J38)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses of your Corrupted Maps drop 2 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted</v>
       </c>
       <c r="L38" s="2">
@@ -5615,7 +6055,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" s="2" t="str">
-        <f>CONCATENATE(F39, IF(ISTEXT(G39), " &lt;br&gt; ", ""), G39, IF(ISTEXT(H39), " &lt;br&gt; ", ""), H39, IF(ISTEXT(I39), " &lt;br&gt; ", ""), I39, IF(ISTEXT(J39), " &lt;br&gt; ", ""), J39)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Conqueror Map</v>
       </c>
       <c r="L39" s="2">
@@ -5652,7 +6092,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" s="2" t="str">
-        <f>CONCATENATE(F40, IF(ISTEXT(G40), " &lt;br&gt; ", ""), G40, IF(ISTEXT(H40), " &lt;br&gt; ", ""), H40, IF(ISTEXT(I40), " &lt;br&gt; ", ""), I40, IF(ISTEXT(J40), " &lt;br&gt; ", ""), J40)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+)</v>
       </c>
       <c r="L40" s="2">
@@ -5689,7 +6129,7 @@
       </c>
       <c r="J41"/>
       <c r="K41" s="2" t="str">
-        <f>CONCATENATE(F41, IF(ISTEXT(G41), " &lt;br&gt; ", ""), G41, IF(ISTEXT(H41), " &lt;br&gt; ", ""), H41, IF(ISTEXT(I41), " &lt;br&gt; ", ""), I41, IF(ISTEXT(J41), " &lt;br&gt; ", ""), J41)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+)</v>
       </c>
       <c r="L41" s="2">
@@ -5720,7 +6160,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" s="2" t="str">
-        <f>CONCATENATE(F42, IF(ISTEXT(G42), " &lt;br&gt; ", ""), G42, IF(ISTEXT(H42), " &lt;br&gt; ", ""), H42, IF(ISTEXT(I42), " &lt;br&gt; ", ""), I42, IF(ISTEXT(J42), " &lt;br&gt; ", ""), J42)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses drop 1 additional Unique Item</v>
       </c>
       <c r="L42" s="2">
@@ -5754,7 +6194,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" s="2" t="str">
-        <f>CONCATENATE(F43, IF(ISTEXT(G43), " &lt;br&gt; ", ""), G43, IF(ISTEXT(H43), " &lt;br&gt; ", ""), H43, IF(ISTEXT(I43), " &lt;br&gt; ", ""), I43, IF(ISTEXT(J43), " &lt;br&gt; ", ""), J43)</f>
+        <f t="shared" si="1"/>
         <v>Breaches in your Maps belong to Chayula &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L43" s="2">
@@ -5788,7 +6228,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" s="2" t="str">
-        <f>CONCATENATE(F44, IF(ISTEXT(G44), " &lt;br&gt; ", ""), G44, IF(ISTEXT(H44), " &lt;br&gt; ", ""), H44, IF(ISTEXT(I44), " &lt;br&gt; ", ""), I44, IF(ISTEXT(J44), " &lt;br&gt; ", ""), J44)</f>
+        <f t="shared" si="1"/>
         <v>Breaches in your Maps belong to Esh &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L44" s="2">
@@ -5822,7 +6262,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" s="2" t="str">
-        <f>CONCATENATE(F45, IF(ISTEXT(G45), " &lt;br&gt; ", ""), G45, IF(ISTEXT(H45), " &lt;br&gt; ", ""), H45, IF(ISTEXT(I45), " &lt;br&gt; ", ""), I45, IF(ISTEXT(J45), " &lt;br&gt; ", ""), J45)</f>
+        <f t="shared" si="1"/>
         <v>Breaches in your Maps belong to Tul &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L45" s="2">
@@ -5856,7 +6296,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" s="2" t="str">
-        <f>CONCATENATE(F46, IF(ISTEXT(G46), " &lt;br&gt; ", ""), G46, IF(ISTEXT(H46), " &lt;br&gt; ", ""), H46, IF(ISTEXT(I46), " &lt;br&gt; ", ""), I46, IF(ISTEXT(J46), " &lt;br&gt; ", ""), J46)</f>
+        <f t="shared" si="1"/>
         <v>Breaches in your Maps belong to Uul-Netol &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L46" s="2">
@@ -5890,7 +6330,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" s="2" t="str">
-        <f>CONCATENATE(F47, IF(ISTEXT(G47), " &lt;br&gt; ", ""), G47, IF(ISTEXT(H47), " &lt;br&gt; ", ""), H47, IF(ISTEXT(I47), " &lt;br&gt; ", ""), I47, IF(ISTEXT(J47), " &lt;br&gt; ", ""), J47)</f>
+        <f t="shared" si="1"/>
         <v>Breaches in your Maps belong to Xoph &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands</v>
       </c>
       <c r="L47" s="2">
@@ -5921,7 +6361,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" s="2" t="str">
-        <f>CONCATENATE(F48, IF(ISTEXT(G48), " &lt;br&gt; ", ""), G48, IF(ISTEXT(H48), " &lt;br&gt; ", ""), H48, IF(ISTEXT(I48), " &lt;br&gt; ", ""), I48, IF(ISTEXT(J48), " &lt;br&gt; ", ""), J48)</f>
+        <f t="shared" si="1"/>
         <v>Create a copy of Beasts Captured in your Maps</v>
       </c>
       <c r="L48" s="2">
@@ -5955,7 +6395,7 @@
       </c>
       <c r="J49"/>
       <c r="K49" s="2" t="str">
-        <f>CONCATENATE(F49, IF(ISTEXT(G49), " &lt;br&gt; ", ""), G49, IF(ISTEXT(H49), " &lt;br&gt; ", ""), H49, IF(ISTEXT(I49), " &lt;br&gt; ", ""), I49, IF(ISTEXT(J49), " &lt;br&gt; ", ""), J49)</f>
+        <f t="shared" si="1"/>
         <v>Delirium Reward Bars fill 100% faster in your Maps</v>
       </c>
       <c r="L49" s="2">
@@ -5989,7 +6429,7 @@
       </c>
       <c r="J50"/>
       <c r="K50" s="2" t="str">
-        <f>CONCATENATE(F50, IF(ISTEXT(G50), " &lt;br&gt; ", ""), G50, IF(ISTEXT(H50), " &lt;br&gt; ", ""), H50, IF(ISTEXT(I50), " &lt;br&gt; ", ""), I50, IF(ISTEXT(J50), " &lt;br&gt; ", ""), J50)</f>
+        <f t="shared" si="1"/>
         <v>Your Maps contain 100% increased number of Runic Monster Markers</v>
       </c>
       <c r="L50" s="2">
@@ -6029,7 +6469,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" s="2" t="str">
-        <f>CONCATENATE(F51, IF(ISTEXT(G51), " &lt;br&gt; ", ""), G51, IF(ISTEXT(H51), " &lt;br&gt; ", ""), H51, IF(ISTEXT(I51), " &lt;br&gt; ", ""), I51, IF(ISTEXT(J51), " &lt;br&gt; ", ""), J51)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses are accompanied by a mysterious Harbinger &lt;br&gt; Map Bosses drop additional Currency Shards &lt;br&gt; Harbingers in your Maps drop additional Currency Shards</v>
       </c>
       <c r="L51" s="2">
@@ -6066,7 +6506,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" s="2" t="str">
-        <f>CONCATENATE(F52, IF(ISTEXT(G52), " &lt;br&gt; ", ""), G52, IF(ISTEXT(H52), " &lt;br&gt; ", ""), H52, IF(ISTEXT(I52), " &lt;br&gt; ", ""), I52, IF(ISTEXT(J52), " &lt;br&gt; ", ""), J52)</f>
+        <f t="shared" si="1"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Blue Plants</v>
       </c>
       <c r="L52" s="2">
@@ -6106,7 +6546,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" s="2" t="str">
-        <f>CONCATENATE(F53, IF(ISTEXT(G53), " &lt;br&gt; ", ""), G53, IF(ISTEXT(H53), " &lt;br&gt; ", ""), H53, IF(ISTEXT(I53), " &lt;br&gt; ", ""), I53, IF(ISTEXT(J53), " &lt;br&gt; ", ""), J53)</f>
+        <f t="shared" si="1"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Purple Plants</v>
       </c>
       <c r="L53" s="2">
@@ -6146,7 +6586,7 @@
       </c>
       <c r="J54"/>
       <c r="K54" s="2" t="str">
-        <f>CONCATENATE(F54, IF(ISTEXT(G54), " &lt;br&gt; ", ""), G54, IF(ISTEXT(H54), " &lt;br&gt; ", ""), H54, IF(ISTEXT(I54), " &lt;br&gt; ", ""), I54, IF(ISTEXT(J54), " &lt;br&gt; ", ""), J54)</f>
+        <f t="shared" si="1"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Yellow Plants</v>
       </c>
       <c r="L54" s="2">
@@ -6180,7 +6620,7 @@
       </c>
       <c r="J55"/>
       <c r="K55" s="2" t="str">
-        <f>CONCATENATE(F55, IF(ISTEXT(G55), " &lt;br&gt; ", ""), G55, IF(ISTEXT(H55), " &lt;br&gt; ", ""), H55, IF(ISTEXT(I55), " &lt;br&gt; ", ""), I55, IF(ISTEXT(J55), " &lt;br&gt; ", ""), J55)</f>
+        <f t="shared" si="1"/>
         <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier</v>
       </c>
       <c r="L55" s="2">
@@ -6217,7 +6657,7 @@
       </c>
       <c r="J56"/>
       <c r="K56" s="2" t="str">
-        <f>CONCATENATE(F56, IF(ISTEXT(G56), " &lt;br&gt; ", ""), G56, IF(ISTEXT(H56), " &lt;br&gt; ", ""), H56, IF(ISTEXT(I56), " &lt;br&gt; ", ""), I56, IF(ISTEXT(J56), " &lt;br&gt; ", ""), J56)</f>
+        <f t="shared" si="1"/>
         <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Items dropped by Corrupted Vaal Monsters in your Maps have 25% chance to be Corrupted</v>
       </c>
       <c r="L56" s="2">
@@ -6251,7 +6691,7 @@
       </c>
       <c r="J57"/>
       <c r="K57" s="2" t="str">
-        <f>CONCATENATE(F57, IF(ISTEXT(G57), " &lt;br&gt; ", ""), G57, IF(ISTEXT(H57), " &lt;br&gt; ", ""), H57, IF(ISTEXT(I57), " &lt;br&gt; ", ""), I57, IF(ISTEXT(J57), " &lt;br&gt; ", ""), J57)</f>
+        <f t="shared" si="1"/>
         <v>Legion Monsters in your Maps have 100% more Life &lt;br&gt; Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated</v>
       </c>
       <c r="L57" s="2">
@@ -6288,7 +6728,7 @@
       </c>
       <c r="J58"/>
       <c r="K58" s="2" t="str">
-        <f>CONCATENATE(F58, IF(ISTEXT(G58), " &lt;br&gt; ", ""), G58, IF(ISTEXT(H58), " &lt;br&gt; ", ""), H58, IF(ISTEXT(I58), " &lt;br&gt; ", ""), I58, IF(ISTEXT(J58), " &lt;br&gt; ", ""), J58)</f>
+        <f t="shared" si="1"/>
         <v>Player's Life and Mana Recovery from Flasks are instant &lt;br&gt; Your Maps contain 6 additional packs of Monsters that Heal</v>
       </c>
       <c r="L58" s="2">
@@ -6316,7 +6756,7 @@
       </c>
       <c r="J59"/>
       <c r="K59" s="2" t="str">
-        <f>CONCATENATE(F59, IF(ISTEXT(G59), " &lt;br&gt; ", ""), G59, IF(ISTEXT(H59), " &lt;br&gt; ", ""), H59, IF(ISTEXT(I59), " &lt;br&gt; ", ""), I59, IF(ISTEXT(J59), " &lt;br&gt; ", ""), J59)</f>
+        <f t="shared" si="1"/>
         <v>Maps found in your Maps are Corrupted with 8 Modifiers</v>
       </c>
       <c r="L59" s="2">
@@ -6347,7 +6787,7 @@
       </c>
       <c r="J60"/>
       <c r="K60" s="2" t="str">
-        <f>CONCATENATE(F60, IF(ISTEXT(G60), " &lt;br&gt; ", ""), G60, IF(ISTEXT(H60), " &lt;br&gt; ", ""), H60, IF(ISTEXT(I60), " &lt;br&gt; ", ""), I60, IF(ISTEXT(J60), " &lt;br&gt; ", ""), J60)</f>
+        <f t="shared" si="1"/>
         <v>Map Bosses deal 20% increased Damage &lt;br&gt; Your Maps have 20% Quality</v>
       </c>
       <c r="L60" s="2">
@@ -6378,7 +6818,7 @@
       </c>
       <c r="J61"/>
       <c r="K61" s="2" t="str">
-        <f>CONCATENATE(F61, IF(ISTEXT(G61), " &lt;br&gt; ", ""), G61, IF(ISTEXT(H61), " &lt;br&gt; ", ""), H61, IF(ISTEXT(I61), " &lt;br&gt; ", ""), I61, IF(ISTEXT(J61), " &lt;br&gt; ", ""), J61)</f>
+        <f t="shared" si="1"/>
         <v>Catalysts dropped by Metamorphs in your Maps are Duplicated &lt;br&gt; Metamorphs in your Maps have 100% more Life</v>
       </c>
       <c r="L61" s="2">
@@ -6412,7 +6852,7 @@
       </c>
       <c r="J62"/>
       <c r="K62" s="2" t="str">
-        <f>CONCATENATE(F62, IF(ISTEXT(G62), " &lt;br&gt; ", ""), G62, IF(ISTEXT(H62), " &lt;br&gt; ", ""), H62, IF(ISTEXT(I62), " &lt;br&gt; ", ""), I62, IF(ISTEXT(J62), " &lt;br&gt; ", ""), J62)</f>
+        <f t="shared" si="1"/>
         <v>Your Maps contain a Mirror of Delirium</v>
       </c>
       <c r="L62" s="2">
@@ -6449,7 +6889,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="7"/>
       <c r="K63" s="2" t="str">
-        <f>CONCATENATE(F63, IF(ISTEXT(G63), " &lt;br&gt; ", ""), G63, IF(ISTEXT(H63), " &lt;br&gt; ", ""), H63, IF(ISTEXT(I63), " &lt;br&gt; ", ""), I63, IF(ISTEXT(J63), " &lt;br&gt; ", ""), J63)</f>
+        <f t="shared" si="1"/>
         <v>Your Maps contain 6 additional packs of Monsters that Convert when Killed</v>
       </c>
       <c r="L63" s="8">
@@ -6485,7 +6925,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="7"/>
       <c r="K64" s="2" t="str">
-        <f>CONCATENATE(F64, IF(ISTEXT(G64), " &lt;br&gt; ", ""), G64, IF(ISTEXT(H64), " &lt;br&gt; ", ""), H64, IF(ISTEXT(I64), " &lt;br&gt; ", ""), I64, IF(ISTEXT(J64), " &lt;br&gt; ", ""), J64)</f>
+        <f t="shared" si="1"/>
         <v>Players and their Minions cannot take Reflected Damage &lt;br&gt; Your Maps contain 4 additional Packs with Mirrored Rare Monsters</v>
       </c>
       <c r="L64" s="8">
@@ -6516,7 +6956,7 @@
       </c>
       <c r="J65"/>
       <c r="K65" s="2" t="str">
-        <f>CONCATENATE(F65, IF(ISTEXT(G65), " &lt;br&gt; ", ""), G65, IF(ISTEXT(H65), " &lt;br&gt; ", ""), H65, IF(ISTEXT(I65), " &lt;br&gt; ", ""), I65, IF(ISTEXT(J65), " &lt;br&gt; ", ""), J65)</f>
+        <f t="shared" si="1"/>
         <v>The First 3 Possessed Monsters drop an additional Gilded Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L65" s="2">
@@ -6547,7 +6987,7 @@
       </c>
       <c r="J66"/>
       <c r="K66" s="2" t="str">
-        <f>CONCATENATE(F66, IF(ISTEXT(G66), " &lt;br&gt; ", ""), G66, IF(ISTEXT(H66), " &lt;br&gt; ", ""), H66, IF(ISTEXT(I66), " &lt;br&gt; ", ""), I66, IF(ISTEXT(J66), " &lt;br&gt; ", ""), J66)</f>
+        <f t="shared" ref="K66:K97" si="2">CONCATENATE(F66, IF(ISTEXT(G66), " &lt;br&gt; ", ""), G66, IF(ISTEXT(H66), " &lt;br&gt; ", ""), H66, IF(ISTEXT(I66), " &lt;br&gt; ", ""), I66, IF(ISTEXT(J66), " &lt;br&gt; ", ""), J66)</f>
         <v>The First 3 Possessed Monsters drop an additional Polished Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L66" s="2">
@@ -6578,7 +7018,7 @@
       </c>
       <c r="J67"/>
       <c r="K67" s="2" t="str">
-        <f>CONCATENATE(F67, IF(ISTEXT(G67), " &lt;br&gt; ", ""), G67, IF(ISTEXT(H67), " &lt;br&gt; ", ""), H67, IF(ISTEXT(I67), " &lt;br&gt; ", ""), I67, IF(ISTEXT(J67), " &lt;br&gt; ", ""), J67)</f>
+        <f t="shared" si="2"/>
         <v>The First 3 Possessed Monsters drop an additional Rusted Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer</v>
       </c>
       <c r="L67" s="6">
@@ -6609,7 +7049,7 @@
       </c>
       <c r="J68"/>
       <c r="K68" s="2" t="str">
-        <f>CONCATENATE(F68, IF(ISTEXT(G68), " &lt;br&gt; ", ""), G68, IF(ISTEXT(H68), " &lt;br&gt; ", ""), H68, IF(ISTEXT(I68), " &lt;br&gt; ", ""), I68, IF(ISTEXT(J68), " &lt;br&gt; ", ""), J68)</f>
+        <f t="shared" si="2"/>
         <v>Map Bosses have 20% increased Life &lt;br&gt; Quality bonus of your Maps also applies to Rarity of Items found</v>
       </c>
       <c r="L68" s="2">
@@ -6644,7 +7084,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="7"/>
       <c r="K69" s="2" t="str">
-        <f>CONCATENATE(F69, IF(ISTEXT(G69), " &lt;br&gt; ", ""), G69, IF(ISTEXT(H69), " &lt;br&gt; ", ""), H69, IF(ISTEXT(I69), " &lt;br&gt; ", ""), I69, IF(ISTEXT(J69), " &lt;br&gt; ", ""), J69)</f>
+        <f t="shared" si="2"/>
         <v>Your Magic Maps contain 4 additional packs of Magic Monsters &lt;br&gt; Your Normal Maps contain 4 additional packs of Normal Monsters &lt;br&gt; Your Rare Maps contain 4 additional Rare Monster packs</v>
       </c>
       <c r="L69" s="8">
@@ -6678,7 +7118,7 @@
       </c>
       <c r="J70"/>
       <c r="K70" s="2" t="str">
-        <f>CONCATENATE(F70, IF(ISTEXT(G70), " &lt;br&gt; ", ""), G70, IF(ISTEXT(H70), " &lt;br&gt; ", ""), H70, IF(ISTEXT(I70), " &lt;br&gt; ", ""), I70, IF(ISTEXT(J70), " &lt;br&gt; ", ""), J70)</f>
+        <f t="shared" si="2"/>
         <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time</v>
       </c>
       <c r="L70" s="2">
@@ -6719,7 +7159,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="7"/>
       <c r="K71" s="2" t="str">
-        <f>CONCATENATE(F71, IF(ISTEXT(G71), " &lt;br&gt; ", ""), G71, IF(ISTEXT(H71), " &lt;br&gt; ", ""), H71, IF(ISTEXT(I71), " &lt;br&gt; ", ""), I71, IF(ISTEXT(J71), " &lt;br&gt; ", ""), J71)</f>
+        <f t="shared" si="2"/>
         <v>Strongbox Monsters are Enraged &lt;br&gt; Strongbox Monsters have 500% increased Item Quantity &lt;br&gt; Your Maps contain an additional Strongbox</v>
       </c>
       <c r="L71" s="8">
@@ -6753,7 +7193,7 @@
       </c>
       <c r="J72"/>
       <c r="K72" s="2" t="str">
-        <f>CONCATENATE(F72, IF(ISTEXT(G72), " &lt;br&gt; ", ""), G72, IF(ISTEXT(H72), " &lt;br&gt; ", ""), H72, IF(ISTEXT(I72), " &lt;br&gt; ", ""), I72, IF(ISTEXT(J72), " &lt;br&gt; ", ""), J72)</f>
+        <f t="shared" si="2"/>
         <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps</v>
       </c>
       <c r="L72" s="2">
@@ -6787,7 +7227,7 @@
       </c>
       <c r="J73"/>
       <c r="K73" s="2" t="str">
-        <f>CONCATENATE(F73, IF(ISTEXT(G73), " &lt;br&gt; ", ""), G73, IF(ISTEXT(H73), " &lt;br&gt; ", ""), H73, IF(ISTEXT(I73), " &lt;br&gt; ", ""), I73, IF(ISTEXT(J73), " &lt;br&gt; ", ""), J73)</f>
+        <f t="shared" si="2"/>
         <v>Unique Monsters drop Corrupted Items</v>
       </c>
       <c r="L73" s="2">
@@ -6824,7 +7264,7 @@
       </c>
       <c r="J74"/>
       <c r="K74" s="2" t="str">
-        <f>CONCATENATE(F74, IF(ISTEXT(G74), " &lt;br&gt; ", ""), G74, IF(ISTEXT(H74), " &lt;br&gt; ", ""), H74, IF(ISTEXT(I74), " &lt;br&gt; ", ""), I74, IF(ISTEXT(J74), " &lt;br&gt; ", ""), J74)</f>
+        <f t="shared" si="2"/>
         <v>Players' Vaal Skills do not apply Soul Gain Prevention &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</v>
       </c>
       <c r="L74" s="2">
@@ -6861,7 +7301,7 @@
       </c>
       <c r="J75"/>
       <c r="K75" s="2" t="str">
-        <f>CONCATENATE(F75, IF(ISTEXT(G75), " &lt;br&gt; ", ""), G75, IF(ISTEXT(H75), " &lt;br&gt; ", ""), H75, IF(ISTEXT(I75), " &lt;br&gt; ", ""), I75, IF(ISTEXT(J75), " &lt;br&gt; ", ""), J75)</f>
+        <f t="shared" si="2"/>
         <v>Your Maps contain 6 additional packs of Corrupted Vaal Monsters &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used</v>
       </c>
       <c r="L75" s="2">
@@ -6895,7 +7335,7 @@
       </c>
       <c r="J76"/>
       <c r="K76" s="2" t="str">
-        <f>CONCATENATE(F76, IF(ISTEXT(G76), " &lt;br&gt; ", ""), G76, IF(ISTEXT(H76), " &lt;br&gt; ", ""), H76, IF(ISTEXT(I76), " &lt;br&gt; ", ""), I76, IF(ISTEXT(J76), " &lt;br&gt; ", ""), J76)</f>
+        <f t="shared" si="2"/>
         <v>Players gain an additional Vaal Soul on Kill &lt;br&gt; Your Maps contain 6 additional packs of Corrupted Vaal Monsters</v>
       </c>
       <c r="L76" s="2">
@@ -6928,7 +7368,7 @@
         <v>121</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" ref="K66:K97" si="0">CONCATENATE(F77, IF(ISTEXT(G77), " &lt;br&gt; ", ""), G77, IF(ISTEXT(H77), " &lt;br&gt; ", ""), H77, IF(ISTEXT(I77), " &lt;br&gt; ", ""), I77, IF(ISTEXT(J77), " &lt;br&gt; ", ""), J77)</f>
+        <f t="shared" ref="K77:K97" si="3">CONCATENATE(F77, IF(ISTEXT(G77), " &lt;br&gt; ", ""), G77, IF(ISTEXT(H77), " &lt;br&gt; ", ""), H77, IF(ISTEXT(I77), " &lt;br&gt; ", ""), I77, IF(ISTEXT(J77), " &lt;br&gt; ", ""), J77)</f>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Shaper Guardian Map (Tier 14+) &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L77" s="2">
@@ -6961,7 +7401,7 @@
         <v>121</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Elder Guardian Map (Tier 14+) &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L78" s="2">
@@ -6994,7 +7434,7 @@
         <v>121</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Map Bosses deal 100% more Damage &lt;br&gt; Map Bosses have 200% more Life &lt;br&gt; Final Map Boss in each Map drops an additional Conqueror Map &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L79" s="2">
@@ -7024,7 +7464,7 @@
         <v>121</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Items found in your Identified Maps are Identified &lt;br&gt; 25% increased Pack Size in your Unidentified Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L80" s="2">
@@ -7051,7 +7491,7 @@
         <v>121</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and Monsters take 14% increased Fire Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Fire Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L81" s="2">
@@ -7081,7 +7521,7 @@
         <v>121</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and Monsters take 14% increased Cold Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Cold Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L82" s="2">
@@ -7111,7 +7551,7 @@
         <v>121</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and Monsters take 14% increased Lightning Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Lightning Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L83" s="2">
@@ -7141,7 +7581,7 @@
         <v>121</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and Monsters take 14% increased Physical Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Physical Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L84" s="2">
@@ -7171,7 +7611,7 @@
         <v>121</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and Monsters take 14% increased Chaos Damage &lt;br&gt; Your Maps contain 8 additional packs of Monsters that deal Chaos Damage &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L85" s="2">
@@ -7199,7 +7639,7 @@
         <v>121</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Unique Monsters drop Corrupted Items &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L86" s="2">
@@ -7230,7 +7670,7 @@
         <v>121</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain Einhar &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L87" s="2">
@@ -7260,7 +7700,7 @@
         <v>121</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain Alva &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L88" s="2">
@@ -7291,7 +7731,7 @@
         <v>121</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain Niko &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L89" s="2">
@@ -7321,7 +7761,7 @@
         <v>121</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain Jun &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L90" s="2">
@@ -7357,7 +7797,7 @@
         <v>121</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain 3 additional Strongboxes &lt;br&gt; Strongboxes in your Maps are Corrupted &lt;br&gt; Strongboxes in your Maps are at least Rare &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L91" s="2">
@@ -7387,7 +7827,7 @@
         <v>121</v>
       </c>
       <c r="K92" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Map Bosses of your Corrupted Maps drop 3 additional Vaal Items &lt;br&gt; Items found in your Maps have 5% chance to be Corrupted &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L92" s="2">
@@ -7411,7 +7851,7 @@
         <v>121</v>
       </c>
       <c r="K93" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30% increased Magic Pack Size &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L93" s="2">
@@ -7444,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Magic Maps contain 5 additional packs of Magic Monsters &lt;br&gt; Your Normal Maps contain 5 additional packs of Normal Monsters &lt;br&gt; Your Rare Maps contain 5 additional Rare Monster packs &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L94" s="2">
@@ -7477,7 +7917,7 @@
         <v>121</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Players and their Minions cannot take Reflected Damage &lt;br&gt; Your Maps contain 5 additional Packs with Mirrored Rare Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L95" s="2">
@@ -7504,7 +7944,7 @@
         <v>121</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L96" s="8">
@@ -7531,7 +7971,7 @@
         <v>121</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L97" s="8">
@@ -7558,7 +7998,7 @@
         <v>121</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" ref="K98:K129" si="1">CONCATENATE(F98, IF(ISTEXT(G98), " &lt;br&gt; ", ""), G98, IF(ISTEXT(H98), " &lt;br&gt; ", ""), H98, IF(ISTEXT(I98), " &lt;br&gt; ", ""), I98, IF(ISTEXT(J98), " &lt;br&gt; ", ""), J98)</f>
+        <f t="shared" ref="K98:K129" si="4">CONCATENATE(F98, IF(ISTEXT(G98), " &lt;br&gt; ", ""), G98, IF(ISTEXT(H98), " &lt;br&gt; ", ""), H98, IF(ISTEXT(I98), " &lt;br&gt; ", ""), I98, IF(ISTEXT(J98), " &lt;br&gt; ", ""), J98)</f>
         <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L98" s="8">
@@ -7585,7 +8025,7 @@
         <v>121</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L99" s="8">
@@ -7612,7 +8052,7 @@
         <v>121</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain 35 additional Clusters of Mysterious Barrels &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L100" s="8">
@@ -7643,7 +8083,7 @@
         <v>121</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Strongbox Monsters are Enraged &lt;br&gt; Strongbox Monsters have 600% increased Item Quantity &lt;br&gt; Your Maps contain an additional Strongbox &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L101" s="8">
@@ -7673,7 +8113,7 @@
         <v>121</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain hunted traitors &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L102" s="2">
@@ -7700,7 +8140,7 @@
         <v>121</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain 8 additional packs of Monsters that Convert when Killed &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L103" s="2">
@@ -7730,7 +8170,7 @@
         <v>121</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Player's Life and Mana Recovery from Flasks are instant &lt;br&gt; Your Maps contain 8 additional packs of Monsters that Heal &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L104" s="2">
@@ -7757,7 +8197,7 @@
         <v>121</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Map Bosses are accompanied by Bodyguards &lt;br&gt; 2 additional Maps drop on Completing your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L105" s="2">
@@ -7787,7 +8227,7 @@
         <v>121</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps can contain Breaches &lt;br&gt; Your Maps contain 2 additional Breaches &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L106" s="2">
@@ -7817,7 +8257,7 @@
         <v>121</v>
       </c>
       <c r="K107" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Breaches in your Maps belong to Xoph &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L107" s="2">
@@ -7847,7 +8287,7 @@
         <v>121</v>
       </c>
       <c r="K108" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Breaches in your Maps belong to Tul &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L108" s="2">
@@ -7877,7 +8317,7 @@
         <v>121</v>
       </c>
       <c r="K109" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Breaches in your Maps belong to Esh &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L109" s="2">
@@ -7907,7 +8347,7 @@
         <v>121</v>
       </c>
       <c r="K110" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Breaches in your Maps belong to Uul-Netol &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L110" s="2">
@@ -7937,7 +8377,7 @@
         <v>121</v>
       </c>
       <c r="K111" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Breaches in your Maps belong to Chayula &lt;br&gt; Breaches in your Maps contain 3 additional Clasped Hands &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L111" s="2">
@@ -7967,7 +8407,7 @@
         <v>121</v>
       </c>
       <c r="K112" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain 2 additional Abysses &lt;br&gt; Your Maps can contain Abysses &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L112" s="2">
@@ -8000,7 +8440,7 @@
         <v>121</v>
       </c>
       <c r="K113" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain an additional Gloom Shrine &lt;br&gt; Your Maps contain an additional Shrine &lt;br&gt; 50% increased Duration of Shrine Effects on Players in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L113" s="2">
@@ -8033,7 +8473,7 @@
         <v>121</v>
       </c>
       <c r="K114" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Monsters Imprisoned by Essences have a 50% chance to contain a Remnant of Corruption &lt;br&gt; Your Maps contain 2 additional Essences &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L114" s="2">
@@ -8063,7 +8503,7 @@
         <v>121</v>
       </c>
       <c r="K115" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Maps found in your Maps are Corrupted with 8 Modifiers &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L115" s="2">
@@ -8093,7 +8533,7 @@
         <v>121</v>
       </c>
       <c r="K116" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Create a copy of Beasts Captured in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L116" s="2">
@@ -8123,7 +8563,7 @@
         <v>121</v>
       </c>
       <c r="K117" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Your Maps contain 100% increased number of Runic Monster Markers &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L117" s="2">
@@ -8156,7 +8596,7 @@
         <v>121</v>
       </c>
       <c r="K118" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Legion Monsters in your Maps have 100% more Life &lt;br&gt; Splinters and Emblems dropped by Legion Monsters in your Maps are duplicated &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L118" s="2">
@@ -8189,7 +8629,7 @@
         <v>121</v>
       </c>
       <c r="K119" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Catalysts dropped by Metamorphs in your Maps are Duplicated &lt;br&gt; Metamorphs in your Maps have 100% more Life &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L119" s="2">
@@ -8222,7 +8662,7 @@
         <v>121</v>
       </c>
       <c r="K120" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Oils found in your Maps are 1 tier higher &lt;br&gt; Cost of Building and Upgrading Blight Towers in your Maps is doubled &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L120" s="2">
@@ -8252,7 +8692,7 @@
         <v>121</v>
       </c>
       <c r="K121" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100% increased Intelligence gained from Immortal Syndicate targets encountered in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L121" s="2">
@@ -8282,7 +8722,7 @@
         <v>121</v>
       </c>
       <c r="K122" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Delirium Reward Bars fill 100% faster in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L122" s="2">
@@ -8318,7 +8758,7 @@
         <v>121</v>
       </c>
       <c r="K123" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Blue Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L123" s="2">
@@ -8354,7 +8794,7 @@
         <v>121</v>
       </c>
       <c r="K124" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Purple Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L124" s="2">
@@ -8390,7 +8830,7 @@
         <v>121</v>
       </c>
       <c r="K125" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Lifeforce dropped by Harvest Monsters in your Maps is Duplicated &lt;br&gt; Harvest Monsters in your Maps have 100% more Life &lt;br&gt; Harvests in your Maps contain at least one Crop of Yellow Plants &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L125" s="2">
@@ -8420,7 +8860,7 @@
         <v>121</v>
       </c>
       <c r="K126" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Non-Unique Heist Contracts found in your Maps have an additional Implicit Modifier &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L126" s="2">
@@ -8450,7 +8890,7 @@
         <v>121</v>
       </c>
       <c r="K127" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Rerolling Favours at Ritual Altars in your Maps has no Cost the first 1 time &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L127" s="2">
@@ -8486,7 +8926,7 @@
         <v>121</v>
       </c>
       <c r="K128" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Map Bosses are accompanied by a mysterious Harbinger &lt;br&gt; Map Bosses drop additional Currency Shards &lt;br&gt; Harbingers in your Maps drop additional Currency Shards &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L128" s="2">
@@ -8516,7 +8956,7 @@
         <v>121</v>
       </c>
       <c r="K129" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Players gain an additional Vaal Soul on Kill &lt;br&gt; Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L129" s="2">
@@ -8546,7 +8986,7 @@
         <v>121</v>
       </c>
       <c r="K130" s="2" t="str">
-        <f t="shared" ref="K130:K161" si="2">CONCATENATE(F130, IF(ISTEXT(G130), " &lt;br&gt; ", ""), G130, IF(ISTEXT(H130), " &lt;br&gt; ", ""), H130, IF(ISTEXT(I130), " &lt;br&gt; ", ""), I130, IF(ISTEXT(J130), " &lt;br&gt; ", ""), J130)</f>
+        <f t="shared" ref="K130:K142" si="5">CONCATENATE(F130, IF(ISTEXT(G130), " &lt;br&gt; ", ""), G130, IF(ISTEXT(H130), " &lt;br&gt; ", ""), H130, IF(ISTEXT(I130), " &lt;br&gt; ", ""), I130, IF(ISTEXT(J130), " &lt;br&gt; ", ""), J130)</f>
         <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; Items dropped by Corrupted Vaal Monsters in your Maps have 30% chance to be Corrupted &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L130" s="2">
@@ -8576,7 +9016,7 @@
         <v>121</v>
       </c>
       <c r="K131" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Slaying Enemies close together can attract monsters from Beyond this realm &lt;br&gt; 35% increased Beyond Demon Pack Size in your Maps &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L131" s="2">
@@ -8606,7 +9046,7 @@
         <v>121</v>
       </c>
       <c r="K132" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>The First 3 Possessed Monsters drop an additional Winged Scarab &lt;br&gt; Your Maps contain an additional Tormented Betrayer &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L132" s="2">
@@ -8633,7 +9073,7 @@
         <v>121</v>
       </c>
       <c r="K133" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>The First 3 Possessed Monsters drop an additional Map &lt;br&gt; Your Maps contain an additional Tormented Heretic &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L133" s="2">
@@ -8663,7 +9103,7 @@
         <v>121</v>
       </c>
       <c r="K134" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Red Queen per Mortal Fragment used &lt;br&gt; Your Maps have a 50% chance to contain Gifts of the Sacrificed per Sacrifice Fragment used &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L134" s="2">
@@ -8693,7 +9133,7 @@
         <v>121</v>
       </c>
       <c r="K135" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Players' Vaal Skills do not apply Soul Gain Prevention &lt;br&gt; Your Maps contain 8 additional packs of Corrupted Vaal Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L135" s="2">
@@ -8720,7 +9160,7 @@
         <v>121</v>
       </c>
       <c r="K136" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain an additional Legion Encounter &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L136" s="2">
@@ -8750,7 +9190,7 @@
         <v>121</v>
       </c>
       <c r="K137" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Area contains Metamorph Monsters &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L137" s="2">
@@ -8780,7 +9220,7 @@
         <v>121</v>
       </c>
       <c r="K138" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain a Blight Encounter &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L138" s="2">
@@ -8813,7 +9253,7 @@
         <v>121</v>
       </c>
       <c r="K139" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain a Mirror of Delirium &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L139" s="2">
@@ -8843,7 +9283,7 @@
         <v>121</v>
       </c>
       <c r="K140" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain The Sacred Grove &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L140" s="2">
@@ -8873,7 +9313,7 @@
         <v>121</v>
       </c>
       <c r="K141" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Area contains a Smuggler's Cache &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L141" s="2">
@@ -8903,7 +9343,7 @@
         <v>121</v>
       </c>
       <c r="K142" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Your Maps contain Ritual Altars &lt;br&gt; 15 uses remaining</v>
       </c>
       <c r="L142" s="2">
